--- a/src/site/documents/rulesets/dsa-4.1/dsa-4.1.xlsx
+++ b/src/site/documents/rulesets/dsa-4.1/dsa-4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianni\Documents\Java Programme\Goetterblick\src\site\documents\rulesets\dsa-4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D01EDA-5046-4E51-BD7E-2FAF6BC6D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C599A45-1343-455E-870D-2EB49D9B118A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eigenschaften" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="402">
   <si>
     <t>tid</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>weight_subtr</t>
   </si>
   <si>
-    <t>age_calc</t>
-  </si>
-  <si>
     <t>mittelland</t>
   </si>
   <si>
@@ -1061,21 +1058,6 @@
     <t>zwerge</t>
   </si>
   <si>
-    <t>elfen</t>
-  </si>
-  <si>
-    <t>halbelfen</t>
-  </si>
-  <si>
-    <t>15+1d3</t>
-  </si>
-  <si>
-    <t>35+1d6</t>
-  </si>
-  <si>
-    <t>25+1d20</t>
-  </si>
-  <si>
     <t>hex_code</t>
   </si>
   <si>
@@ -1185,6 +1167,90 @@
   </si>
   <si>
     <t>dark-purple</t>
+  </si>
+  <si>
+    <t>nivese</t>
+  </si>
+  <si>
+    <t>norbarden</t>
+  </si>
+  <si>
+    <t>trollzacker</t>
+  </si>
+  <si>
+    <t>waldmenschen</t>
+  </si>
+  <si>
+    <t>utulus</t>
+  </si>
+  <si>
+    <t>rochshaz</t>
+  </si>
+  <si>
+    <t>tocamuyac</t>
+  </si>
+  <si>
+    <t>auelfen</t>
+  </si>
+  <si>
+    <t>waldelfen</t>
+  </si>
+  <si>
+    <t>firnelfen</t>
+  </si>
+  <si>
+    <t>halbelfen-auelf</t>
+  </si>
+  <si>
+    <t>halbelfen-firnelf</t>
+  </si>
+  <si>
+    <t>halbelfen-thorwalisch</t>
+  </si>
+  <si>
+    <t>halbelfen-nivesisch</t>
+  </si>
+  <si>
+    <t>brilliantzwerge</t>
+  </si>
+  <si>
+    <t>amboszwerge</t>
+  </si>
+  <si>
+    <t>wilde-zwerge</t>
+  </si>
+  <si>
+    <t>orkfrau</t>
+  </si>
+  <si>
+    <t>halborks</t>
+  </si>
+  <si>
+    <t>orks</t>
+  </si>
+  <si>
+    <t>goblins</t>
+  </si>
+  <si>
+    <t>goblinfrau</t>
+  </si>
+  <si>
+    <t>achaz</t>
+  </si>
+  <si>
+    <t>orkland-achaz</t>
+  </si>
+  <si>
+    <t>maraskan-achaz</t>
+  </si>
+  <si>
+    <t>erzzwerge</t>
+  </si>
+  <si>
+    <t>age_min</t>
+  </si>
+  <si>
+    <t>age_max</t>
   </si>
 </sst>
 </file>
@@ -1715,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C126EB39-5F8A-4A17-AC04-D6314E24D7EA}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,16 +1798,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1749,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1763,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1777,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C4" s="2">
         <v>10</v>
@@ -1791,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C5" s="2">
         <v>12</v>
@@ -1805,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C6" s="2">
         <v>18</v>
@@ -1819,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C7" s="2">
         <v>20</v>
@@ -1833,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1847,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C9" s="2">
         <v>5</v>
@@ -1861,7 +1927,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C10" s="2">
         <v>13</v>
@@ -1875,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C11" s="2">
         <v>17</v>
@@ -1889,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C12" s="2">
         <v>19</v>
@@ -1903,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -1917,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1931,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C15" s="2">
         <v>3</v>
@@ -1945,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -1959,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C17" s="2">
         <v>12</v>
@@ -1973,7 +2039,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C18" s="2">
         <v>19</v>
@@ -1987,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2001,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -2015,7 +2081,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C21" s="2">
         <v>6</v>
@@ -2029,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C22" s="2">
         <v>10</v>
@@ -2043,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C23" s="2">
         <v>11</v>
@@ -2057,7 +2123,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C24" s="2">
         <v>15</v>
@@ -2071,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -2085,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -2099,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -2113,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
@@ -2127,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C29" s="2">
         <v>13</v>
@@ -2141,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C30" s="2">
         <v>17</v>
@@ -2155,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C31" s="2">
         <v>19</v>
@@ -2169,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C32" s="2">
         <v>20</v>
@@ -2183,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -2197,7 +2263,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
@@ -2211,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2">
         <v>7</v>
@@ -2225,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C36" s="2">
         <v>11</v>
@@ -2239,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2">
         <v>15</v>
@@ -2253,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2">
         <v>17</v>
@@ -2267,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2">
         <v>19</v>
@@ -2281,12 +2347,96 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2">
         <v>20</v>
       </c>
       <c r="D40" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C44" s="2">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="2">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2">
         <v>20</v>
       </c>
     </row>
@@ -11729,7 +11879,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11927,7 +12077,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11954,7 +12104,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -11968,7 +12118,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11982,7 +12132,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11996,7 +12146,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12010,7 +12160,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12024,7 +12174,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12038,7 +12188,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12052,7 +12202,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12066,7 +12216,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12080,7 +12230,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12094,7 +12244,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12108,7 +12258,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12122,7 +12272,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12136,7 +12286,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12150,7 +12300,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12164,7 +12314,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -12178,7 +12328,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -12192,7 +12342,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -12206,7 +12356,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -12220,7 +12370,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -12234,7 +12384,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -12577,7 +12727,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12604,7 +12754,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12618,7 +12768,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12632,7 +12782,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12646,7 +12796,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12660,7 +12810,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12674,7 +12824,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12688,7 +12838,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12702,7 +12852,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -12716,7 +12866,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -12730,7 +12880,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12744,7 +12894,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -12758,7 +12908,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -12772,7 +12922,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -12786,7 +12936,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12800,7 +12950,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -12814,7 +12964,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13209,10 +13359,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF64AA8-8A48-4D17-8607-268D13AA7A05}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13220,18 +13370,19 @@
     <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13260,27 +13411,27 @@
         <v>332</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -13294,14 +13445,17 @@
       <c r="I2" s="2">
         <v>100</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>340</v>
+      <c r="J2" s="2">
+        <v>16</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -13312,10 +13466,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -13329,14 +13480,17 @@
       <c r="I3" s="2">
         <v>105</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>340</v>
+      <c r="J3" s="2">
+        <v>16</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -13347,10 +13501,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -13364,14 +13515,17 @@
       <c r="I4" s="2">
         <v>95</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>340</v>
+      <c r="J4" s="2">
+        <v>16</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -13382,10 +13536,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
+        <v>336</v>
       </c>
       <c r="F5" s="2">
         <v>16</v>
@@ -13399,14 +13550,17 @@
       <c r="I5" s="2">
         <v>80</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>341</v>
+      <c r="J5" s="2">
+        <v>36</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -13417,10 +13571,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
+        <v>381</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -13434,14 +13585,17 @@
       <c r="I6" s="2">
         <v>120</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>342</v>
+      <c r="J6" s="2">
+        <v>26</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -13452,10 +13606,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
+        <v>384</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -13469,14 +13620,17 @@
       <c r="I7" s="2">
         <v>120</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>340</v>
+      <c r="J7" s="2">
+        <v>16</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -13486,8 +13640,32 @@
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>157</v>
+      </c>
+      <c r="H8" s="2">
+        <v>195</v>
+      </c>
+      <c r="I8" s="2">
+        <v>110</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15</v>
+      </c>
+      <c r="K8" s="2">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -13497,8 +13675,23 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
+        <v>18</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -13508,8 +13701,23 @@
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7</v>
+      </c>
+      <c r="J10" s="2">
+        <v>15</v>
+      </c>
+      <c r="K10" s="2">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -13519,8 +13727,23 @@
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -13530,8 +13753,23 @@
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -13541,8 +13779,23 @@
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -13552,8 +13805,23 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -13563,8 +13831,23 @@
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="2">
+        <v>23</v>
+      </c>
+      <c r="J15" s="2">
+        <v>26</v>
+      </c>
+      <c r="K15" s="2">
+        <v>45</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -13574,8 +13857,23 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="2">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2">
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <v>45</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -13585,8 +13883,23 @@
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -13596,8 +13909,23 @@
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16</v>
+      </c>
+      <c r="K18" s="2">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -13607,8 +13935,23 @@
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -13618,8 +13961,23 @@
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="2">
+        <v>12</v>
+      </c>
+      <c r="J20" s="2">
+        <v>36</v>
+      </c>
+      <c r="K20" s="2">
+        <v>41</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -13629,8 +13987,23 @@
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="2">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2">
+        <v>41</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -13640,8 +14013,23 @@
       <c r="C22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="2">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2">
+        <v>41</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -13651,8 +14039,23 @@
       <c r="C23" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="2">
+        <v>16</v>
+      </c>
+      <c r="J23" s="2">
+        <v>36</v>
+      </c>
+      <c r="K23" s="2">
+        <v>41</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -13662,8 +14065,23 @@
       <c r="C24" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="J24" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" s="2">
+        <v>15</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -13673,8 +14091,23 @@
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" s="2">
+        <v>15</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -13684,8 +14117,23 @@
       <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" s="2">
+        <v>16</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -13695,8 +14143,23 @@
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>11</v>
+      </c>
+      <c r="K27" s="2">
+        <v>13</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -13706,8 +14169,23 @@
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>11</v>
+      </c>
+      <c r="K28" s="2">
+        <v>13</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -13717,8 +14195,23 @@
       <c r="C29" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F29" s="2">
+        <v>14</v>
+      </c>
+      <c r="J29" s="2">
+        <v>21</v>
+      </c>
+      <c r="K29" s="2">
+        <v>23</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -13728,8 +14221,23 @@
       <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" s="2">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2">
+        <v>21</v>
+      </c>
+      <c r="K30" s="2">
+        <v>23</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -13739,8 +14247,23 @@
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F31" s="2">
+        <v>16</v>
+      </c>
+      <c r="J31" s="2">
+        <v>21</v>
+      </c>
+      <c r="K31" s="2">
+        <v>23</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -13921,10 +14444,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DE890F-0693-4D17-9600-9AF061C8B1DE}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13938,16 +14461,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13955,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -13969,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
@@ -13983,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -13997,7 +14520,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C5" s="2">
         <v>13</v>
@@ -14011,7 +14534,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C6" s="2">
         <v>17</v>
@@ -14025,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C7" s="2">
         <v>19</v>
@@ -14039,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -14053,7 +14576,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -14067,7 +14590,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C10" s="2">
         <v>13</v>
@@ -14081,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C11" s="2">
         <v>15</v>
@@ -14095,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C12" s="2">
         <v>18</v>
@@ -14109,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C13" s="2">
         <v>20</v>
@@ -14123,7 +14646,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -14137,7 +14660,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C15" s="2">
         <v>9</v>
@@ -14151,7 +14674,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -14165,7 +14688,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -14179,7 +14702,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C18" s="2">
         <v>18</v>
@@ -14193,7 +14716,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C19" s="2">
         <v>19</v>
@@ -14207,7 +14730,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C20" s="2">
         <v>20</v>
@@ -14221,7 +14744,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -14235,7 +14758,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -14249,7 +14772,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -14263,7 +14786,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
@@ -14277,7 +14800,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C25" s="2">
         <v>14</v>
@@ -14291,7 +14814,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C26" s="2">
         <v>15</v>
@@ -14305,7 +14828,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C27" s="2">
         <v>16</v>
@@ -14319,7 +14842,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C28" s="2">
         <v>18</v>
@@ -14333,7 +14856,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -14347,7 +14870,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C30" s="2">
         <v>2</v>
@@ -14361,7 +14884,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C31" s="2">
         <v>4</v>
@@ -14375,7 +14898,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C32" s="2">
         <v>6</v>
@@ -14389,7 +14912,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2">
         <v>8</v>
@@ -14403,7 +14926,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C34" s="2">
         <v>12</v>
@@ -14417,7 +14940,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2">
         <v>18</v>
@@ -14431,7 +14954,7 @@
         <v>5</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -14445,7 +14968,7 @@
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2">
         <v>4</v>
@@ -14459,7 +14982,7 @@
         <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2">
         <v>7</v>
@@ -14473,7 +14996,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C39" s="2">
         <v>11</v>
@@ -14487,7 +15010,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2">
         <v>16</v>
@@ -14501,7 +15024,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2">
         <v>18</v>
@@ -14515,12 +15038,82 @@
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2">
         <v>20</v>
       </c>
       <c r="D42" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="2">
+        <v>16</v>
+      </c>
+      <c r="D44" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>6</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" s="2">
+        <v>17</v>
+      </c>
+      <c r="D45" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="2">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2">
         <v>20</v>
       </c>
     </row>

--- a/src/site/documents/rulesets/dsa-4.1/dsa-4.1.xlsx
+++ b/src/site/documents/rulesets/dsa-4.1/dsa-4.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gianni\Documents\Java Programme\Goetterblick\src\site\documents\rulesets\dsa-4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E40AE8-EBAF-471D-AF01-50DC9E1CF9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2936ED1-435E-4441-AD0B-B2AA5CE03852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="731" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="731" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eigenschaften" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4103" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4135" uniqueCount="743">
   <si>
     <t>tid</t>
   </si>
@@ -1073,9 +1073,6 @@
     <t>start_age_min</t>
   </si>
   <si>
-    <t>lvl_up_i4</t>
-  </si>
-  <si>
     <t>1|2|2</t>
   </si>
   <si>
@@ -1622,9 +1619,6 @@
     <t>gift-talentgroup-range</t>
   </si>
   <si>
-    <t>&lt;</t>
-  </si>
-  <si>
     <t>master-craftsmanship-quartermage</t>
   </si>
   <si>
@@ -2135,33 +2129,6 @@
     <t>zhayad-schrift</t>
   </si>
   <si>
-    <t>{ [equipment-benefit] &amp; [special-posession] &amp; [social-adaptivity] &amp; [connections] &amp; [commitments] &amp; [prejudices] } REC &amp; { [fairyfriend] &amp; [claustrophobia] } NREC &amp; SEL { +1 } THEN ADD { [crossbow] &amp; [bow] &amp; [throwing-knife] } &amp; [dagger] +1 &amp; [infantry-weapons] +1 &amp; [brawl] +1 &amp; [carousing] +1 &amp; [etiquette] +1 &amp; [street-kowledge] +1 &amp; [social-skills] +1 &amp; [persuade] +1 &amp; [gods-cults] +2 &amp; [heraldry] +1 &amp; [arithmetic] +1 &amp; [law] +1 &amp; [sagas-legends] +2 &amp; [garethi] = "mt" &amp; [garethi] = [$kl] -2 &amp; SEL { +3 } THEN ADD { [tulamidya] &amp; [rogolan] &amp; [thorwalsch] } &amp; [agriculture] +1 &amp; [local-knowledge] &amp;  [cultural-studies] &amp; ALL [t_professions] EXCEPT IF [ctg_id_rules] = 0</t>
-  </si>
-  <si>
-    <t>[lep] +1 &amp; [aup] +2 &amp; { [persevering] &amp; [steadfast] &amp; [high-lep] &amp; [direction-sense] &amp; [fast-heal] &amp; [tough-dog] &amp; [superstition] &amp; [prejudices] } REC &amp; { [educated] &amp; [pathological-cleanliness] &amp; [disease-prone] } NREC &amp; [equipment-benefit] { IF ( [char-advantage] HAS NOT [nobel-origin] ) NREC } &amp; [special-possession] { IF ( [char-advantage] HAS NOT [nobel-origin] ) NREC } &amp; [daggers] +1 &amp; [cutting-weapons] +1 &amp; [brawl] +1 &amp; [wrestle] +1 &amp; [spear] +1 &amp; [javelins] +1 &amp; [athletics] +1 &amp; [sneaking] +1 &amp; [self-control] +1 &amp; [hidiing] +1 &amp; [carousing] +1 &amp; [tracking] +1 &amp; [trapping] +1 &amp; [orientation] +1 &amp; [wildlife] +2 &amp; [gods-cults] +1 &amp; [sagas-legends] +2 &amp; [garethi[ ="mt" &amp; [garethi] = [$kl] -2 &amp; SEL { MIN 1 &amp; MAX 3 &amp; LVL 4 } { [oloarkh] &amp; [ologhaijan] &amp; [thorwalsch] } &amp; [agriculture] +1 &amp; [hk-wounds] +1 &amp; [woodworking] +2 &amp; [leatherwork] +1 &amp; [tailoring] +1 % SEL { +1} { [training] &amp; [butcher] &amp; [tanner] &amp; [rough-smith] &amp; [coocking] &amp; [carpenter] } &amp; { [improvisation-master] &amp; [cultural-studies-andergast-nostria] } ADD &amp;  ALL [t_professions] EXCEPT IF [ctg_id_rules] = 0</t>
-  </si>
-  <si>
-    <t>{ [perservering] &amp; [steadfast] &amp; [hight-lep] &amp; [resistance-cold] &amp; [resistance-deseases] &amp; [direction-sense] &amp; [fast-heal] &amp; [tough-dog] &amp; [superstition] &amp; [prejudices] } REC &amp; { [pathological-cleanliness] &amp; [disease-prone] &amp; [agoraphobia] } NREC &amp; [equipment-benefit] { IF ( [char-advantage] HAS NOT [nobel-origin] ) NREC } &amp; [daggers] +1 &amp; [wrestle] +1 &amp; [throwing-knife] +1 &amp; [dancing] +1 &amp; [carousing] +2 &amp; [etiquette] +1 &amp; [social-skills] +1 &amp; [orientation] +1 &amp; [wildlife] +2 &amp; [gods-cults] +1 &amp; [sagas-legends] +2 &amp; [garethi] = "mt" &amp; [garethi] = {$kl} -2 &amp; SEL { +6 &amp; +2 } { [alaani] &amp; [nujuka] } &amp; [agriculture] +1 % [woodworking] +2 &amp; [cooking] +1 &amp; [leatherwork] +1 &amp; [tailoring] +1 &amp; [cultural-studies-bornland] ADD &amp; { [topography-swamp] &amp; [topography-ice] } HALF &amp;  ALL [t_professions] EXCEPT IF [ctg_id_rules] = 0</t>
-  </si>
-  <si>
-    <t>{ [equipment-benefit] &amp; [special-possession] &amp; [social-adaptivity] &amp; [connections] &amp; [arrogance] &amp; [vanity] &amp; [irascibility] &amp; [vindictiveness] &amp; [commitments] &amp; [prejudices] } REC &amp; { [fairyfriend] &amp; [giblinfriend] &amp; [claustrophobia] } NREC &amp; [crossbow] +1 &amp; [daggers] +1 &amp; [fencing-weapons] +1 &amp; [infantry-weapons] +1 &amp; [brawl] +1 &amp; [swimming] +1 &amp; [dancing] +1 &amp; [charming] +1 &amp; [etiquette] +2 &amp; [street-knowledge] +2 &amp; [social-skills] +2 &amp; [persuade] +1 &amp; [history-knowledge] +1 &amp; [gods-cults] +2 &amp; [mechanics] +1 &amp; [arithmetic ] +2 &amp; [law] +1 &amp; [saga-legends] +2 &amp; [garethi] = "mt" &amp; [garethi] = [$kl] -2 &amp; SEL { +5 } { [tulamidya] &amp; [rogolan] } &amp; [kusliker-zeichen-schrift] +2 &amp; [agriculture] +1 &amp; [cultural-studies-horasreich] ADD &amp; [nandus-knowledge] HALF &amp;  ALL [t_professions] EXCEPT IF { [ctg_id_rules] = 0 | [kundschafter] | [ritter] }</t>
-  </si>
-  <si>
-    <t>[mr] +1 &amp; { [equipment-benefit] &amp; [special-possession] &amp; [luck] &amp; [luck-games] &amp; [resistance-heat] &amp; [social-adaptivity] &amp; [connections] &amp; [superstition] &amp; [vanity] &amp; [greed] &amp; [irascibility] &amp; [curiosity] &amp; [food-bids] &amp; [commitments] &amp; [prejudices] } REC &amp; { [nobel-origin] &amp; [fairyfriend] &amp; [goblinfriend] &amp; [resistance-cold] &amp; [claustrophobia] } NREC &amp; [daggers] +2 &amp; [brawl] +1 &amp; [wrestle] +2 &amp; [sabers] +1 &amp; [sneaking] +1 &amp; [hiding] +1 &amp; [dancing] +1 &amp; SEL { +1 } { [pickpocketing] &amp; [jugglery] } &amp; [etiquette] +1 &amp; [street-knowledge] +1 &amp; [social-skills] +2 &amp; [disguising] +1 &amp; [persuade] +1 &amp; [games] +2 &amp; [history-knowledge] +1 &amp; [gods-cults] +1 &amp; [arithmetic ] +1 &amp; [law] +1 &amp; [sagas-legends] +2 &amp; [estimating] +2 &amp; [tulamidya] = "mt" &amp; [tulamidya] = [$kl] -2 &amp; [garethi] = [$kl] -4 &amp; [cultural-studies-tulamidien] ADD &amp; ALL [t_professions] EXCEPT IF { [ctg_id_rules] = 0 | [kundschafter] | [ritter] | [jaeger] }</t>
-  </si>
-  <si>
-    <t>[tulamidya] = "mt" &amp; [tulamidiya] = {$kl}</t>
-  </si>
-  <si>
-    <t>[mu] +1 &amp; [aup] +2 &amp; { [resistance-heat] &amp; [direction-sense] &amp; [food-bids] } AUTO &amp; [claustrophobia] = 5 &amp; [irascibility] = 5 &amp; SEL { =5 } { [arrogance] &amp; [vindictiveness] } &amp; { [persevering] &amp; [steadfast]&amp; [high-lep] &amp; [inner-compass] &amp; [fast-heal] &amp; [tough-dog] &amp; [arrogance] &amp; [irascibility] &amp; [sea-scare] &amp; [principled-99-gesetzte-streng] &amp; [principled-99-gesetze-schwach] &amp; [vindictiveness] &amp; [prejudices] } REC &amp; { [nobel-origin] &amp; [fairyfriend] &amp; [goblinfriend] &amp; [social-adaptivity] &amp; [disease-prone] &amp; [light-sensitive] &amp; [light-shy] &amp; [agoraphobia] } NREC &amp; [bows] +1 &amp; [daggers] +1 &amp; [lancing] +1 &amp; [brawl] +1 &amp; [wrestle] +1 &amp; [sabers] +1 &amp; [spears] +1 &amp; [javelins] +1 &amp; [athletics] +1 &amp; [body-control] +1 &amp; [riding] +3 &amp; [swimming] -1 &amp; [dancing] +1 &amp; [orientation] +3 &amp; [wildlife] +1 &amp; [games] +2 &amp; [gods-cults] +1 &amp; [arithmetic ] +1 &amp; [law] +1 &amp; [sagas-legends] +1 &amp; [estimating] +1 &amp; [astronomy] +1 &amp; [tulamidya] = "mt" &amp; [tulamidiya] = {$kl} -2 &amp; [boats-driving] -1 &amp; { [topography-desert] &amp; [cultural-studies] } ADD &amp; [weaponless-combat-technique-unauer] HALF &amp; { [bote] &amp; [gaukler] &amp; [krieger] &amp; [kundschafter] &amp; [magier] &amp; [söldner] &amp; [streuner] &amp; [wundarzt] } ACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SEL { =5 } { [arrogance] &amp; [vindictiveness] }</t>
-  </si>
-  <si>
-    <t>{ [bote] &amp; [gaukler] &amp; [krieger] &amp; [kundschafter] &amp; [magier] &amp; [söldner] &amp; [streuner] &amp; [wundarzt] } ACT</t>
-  </si>
-  <si>
     <t>[aup] +1 &amp; { [hitzeresistenz] &amp; [richtungssinn] &amp; [raumangst] &amp; [speisegebote] } ADD &amp; [raumangst] =5 &amp; SEL { =5 } { [arroganz] &amp; [rachsucht] } &amp; { [ausdauernd] &amp; [eisern] &amp; [innerer-kompass] &amp; [schwer-verzaubern] &amp; [zaeher-hund] &amp; [arroganz] &amp; [jaehzorn] &amp; [meeresangst] &amp; [prinzipientreue-99-gesetzte-streng] &amp; [prinzipientreue-99-gesetzte-schwach] &amp; [rachsucht] &amp; [vorurteile] } REC &amp; { [adlige-abstammung] &amp; [feenfreund] &amp; [koboldfreund] &amp; [soziale-anpassungsfaehäigkeit] &amp; [krankheitsanfaellig] &amp; [lichtempfindlich] &amp; [lichtscheu] &amp; [platzangst] } NREC &amp; [dolche] +1 &amp; [raufen] +2 &amp; [athletik] +1 &amp; [koerperbeehrrschung] +1 &amp; [reiten] +2 &amp; [schleichen] +1 &amp; [schwimmen] -1 &amp; [selbstbeherrschung] +1 &amp; [sich-verstecken] +1 &amp; [sinnenschaerfe] +1 &amp; [tanzen]+3 &amp; [betoeren] +1 &amp; [lehren] +1 &amp; [ueberreden]+1 &amp; [orientieren] +3 &amp; [wildnisleben] +1 &amp; [brett-kartenspiel] +3 &amp; [goetter-kulte] +1 &amp; [rechnen] +1 &amp; [rechtskunde] +1 &amp; [sagen-legenden] +3 &amp; [schaetzten] +1 &amp; [sternkunde] +1 &amp; [char_native_language] = [tulamidya] &amp; [tulamidya] = [$kl] -2 &amp; [boote-fahren] -1 &amp; [hk-gift] +1 &amp; [hk-krankheit] +1 &amp; [hk-wunden] +2 &amp; [holzbearbeitung] +1 &amp; [kochen] +1 &amp; [lederarbeiten] +2 &amp; [schneidern] +1 &amp; { [geländekunde-wüste] &amp; [kulturkunde-novadis] } ADD &amp; { [bote] &amp; [gaukler] &amp; [krieger] &amp; [kundschafter] &amp; [magier] &amp; [soeldner] &amp; [streuner] &amp; [wundarzt] } ACT</t>
   </si>
   <si>
@@ -2190,6 +2157,129 @@
   </si>
   <si>
     <t>{ [resistenz-hitze] &amp; [soziale-anpassungsfaehigkeit] } ADD &amp; { [resistenz-gift] &amp; [verbindungen] &amp; [aberglaube] &amp; [arroganz] &amp; [eitelkeit] &amp; [geiz] &amp; [goldgier] &amp; [jaehzorn] &amp; [neugier] &amp; [verpflichtungen] &amp; [vorurteile] } REC &amp; { [feenfreund] &amp; [resistenz-kaelte] &amp; [krankheitsanfaellig] &amp; [vourteile] } NREC &amp; SEL { +1 } { [bogen] &amp; [armbrust] } &amp; [dolche] +2 &amp; [raufen] +1 &amp; [ringen] +1 &amp; [saebel] +1 &amp; [schwimmen] +1 &amp; [sich-verstecken] +1 &amp; [gassenwissen] +2 &amp; [menschenkenntnis] +1 &amp; [sich-verkleiden] +1 &amp; [ueberreden] +1 &amp; [goetter-kulte] +1 &amp; [rechnen] +1 &amp; [sagen-legenden] +1 &amp; [schaetzten] +1 &amp; [char-mothertongue] = [gaerthi] &amp; [gaerthi] = [$kl] -2 &amp; [tulamidya] +4 &amp; [mohisch] +4 &amp; [thorwalsch] +2 &amp; [boote-fahren] +1 &amp; [holzbearbeitung] +1 &amp; [lederareiten] +1 &amp; [seefahrt] +1 &amp; [kulturkunde-südaventurien] ADD &amp; ALL [t_professions] EXCEPT IF { [ctg_id_rules] = 0 | [ritter] }</t>
+  </si>
+  <si>
+    <t>[platzangst] =5 &amp; [meeresangst] =5 &amp; { [ausruestungsvorteil] &amp; [besonderer-besitz] &amp; [arroganz] &amp; [geiz] &amp; [prinzipientreue] &amp; [verpflichtungen] &amp; [vorurteile] } REC &amp; { [adlige-abstammung] &amp; [soziale-anpassungsfaehigkeit] &amp; [krankhafte-reinlichkeit] &amp; [speisegebote] } NREC &amp; [armbrust] +3 &amp; [hiebwaffen]  +1 &amp; [raufen] +1 &amp; [zweihand-hiebwaffen] +1 &amp; [athletik] +1 &amp; [klettern] +1 &amp; [zechen] +3 &amp; [gassenwissen] -3 &amp; [wettervorhersage] -2 &amp; [gesteinskunde] +4 &amp; [goetter-kulte] +1 &amp; [mechanik] +1 &amp; [rechnen] +1 &amp; [sagen-legenden] +2 &amp; [schaetzen] +3 &amp; [char-mothertongue] = [rogolan] &amp; [rogolan] = [$kl] &amp; SEL { ( [$kl] -4 ) } { [garethi] &amp; [tulamidiya] } &amp; [bergbau] +2 &amp; [grobschmied] +3 &amp; { [gelaendekunde-hoehle] &amp; [kulturkunde-ambosszwerge] &amp; [ruestungsewoehnung-1-kettenhemdn] } &amp; { [bote] &amp; [entdecker] &amp; [kundschafter] &amp; [soeldner] &amp; [wundarzt] } ADD</t>
+  </si>
+  <si>
+    <t>[elfische-wetlsicht] &amp; [neugier] =5 &amp; [weltfremd-besitz] =6 6 [weltfremd-goetter] =6 &amp; { [ausdauernd] &amp; [feenfreund] &amp; [gefahreninstinkt] &amp; [arroganz] &amp; [vorurteile] } REC &amp; { [soziale-anpassungsfaehigkeit] &amp; [goldgier] &amp; [rachsucht] } NREC &amp; [bogen] LEAD +4 &amp; [dolche] +2 &amp; [athletik] +1 &amp; [klettern] +1 &amp; [koerperbeherrschung] +2 &amp; [schleichen] +3 &amp; [schwimmen] LEAD +4 &amp; [sich-verstecken] LEAD +5 &amp; [singen] +2 &amp; [sinnenschaerfe] +1 &amp; [tanzen] +2 &amp; [betoeren] +3 &amp; [gassenwissen] -2 &amp; [faehrtensuchen] LEAD +3 &amp; [fischen-angeln] LEAD +3 &amp; [orientierung] +2 &amp; [wildnisleben] LEAD +5 &amp; [magiekunde] +3 &amp; [pflanzenkunde] +3 &amp; [rechtskunde] -2 &amp; [sagen-legenden] +2 &amp; [tierkunde] +2 &amp; [char-mothertongue] = [isdira] &amp; [isdira] = [$kl] -2 &amp; SEL { +4 } { ALL [t_talente] EXCEPT IF [alle sprachen ausser seltene] &amp; SEL { +2 } { [bogenbau] LEAD &amp; [boote-fahren] LEAD } &amp; [hk-gift] +1 &amp; [hk-wunden] LEAD +1 &amp; [holzbearbeitung] +2 &amp; [lederarbeiten] +2 &amp; [musizieren] +3 &amp; [schneidern +2 &amp; [attributo] +7 &amp; [balsam] +9 &amp; [bannbaladin] HOUSE +9 &amp; [flim-flam] +7 &amp; [fulminictus] HOUSE +8 &amp; [sensibar] HOUSE +8 &amp; { [grosse-meditation] &amp; [kulturkunde-auelfen] &amp; [repraesentation-elf] &amp; [salasandra] &amp; [gelaendekunde-sumpf] &amp; [freundschaftslied] } ADD &amp; { [aufmerksamkeit] &amp; [kampf-wasser] &amp; [regeneration-1] } HALF &amp; { [legendensänger] &amp; [wildnisleben] } ADD</t>
+  </si>
+  <si>
+    <t>[lep] +1 &amp; [aup] +2 &amp; { [ausdauernd] &amp; [eisern] &amp; [hohe-lep] &amp; [richtungssinn] &amp; [schnelle-heilung] &amp; [zaehher-hund] &amp; [aberglaube] &amp; [vorurteile] } REC &amp; { [gebildet] &amp; [krankhafte-reinlichkeit] &amp; [krankheitsanfaellig] } NREC &amp; [ausrüstungsvorteil] { IF ( [char-advantage] HAS NOT [adlige-abstammung] ) NREC } &amp; [besonderer-besitz] { IF ( [char-advantage] HAS NOT [adlige-abstammung] ) NREC } &amp; [dolche] +1 &amp; [hiebwaffen] +1 &amp; [raufen] +1 &amp; [ringen] +1 &amp; [speere] +1 &amp; [wurfspeere] +1 &amp; [athletik] +1 &amp; [schleichen] +1 &amp; [selbstbeherrschung] +1 &amp; [sich-verstecken] +1 &amp; [zechen] +1 &amp; [faehrtensuche] +1 &amp; [fallenstellen] +1 &amp; [orientierung] +1 &amp; [wildnisleben] +2 &amp; [goetter-kulte] +1 &amp; [sagen-legenden] +2 &amp; [char-mothertongue] = [garethi] &amp; [garethi] = [$kl] -2 &amp; SEL { MIN 1 &amp; MAX 3 &amp; LVL 4 } { [oloarkh] &amp; [ologhaijan] &amp; [thorwalsch] } &amp; [ackerbau] +1 &amp; [hk-wunden] +1 &amp; [holzbearbeitung] +2 &amp; [lederarbeiten] +1 &amp; [schneidern] +1 % SEL { +1} { [abrichten] &amp; [fleischer] &amp; [gerber] &amp; [grobschmied] &amp; [kochen] &amp; [zimemrmann] } &amp; { [meister-improvisation] &amp; [kulturkunde-andergast-nostria] } ADD &amp;  ALL [t_professions] EXCEPT IF [ctg_id_rules] = 0</t>
+  </si>
+  <si>
+    <t>{ [ausdauernd] &amp; [eisern] &amp; [hohe-lep] &amp; [resistenz-kaelte] &amp; [resistenz-krankheiten] &amp; [richtungssinn] &amp; [schnelle-heilung] &amp; [zaeher-hund] &amp; [aberglaube] &amp; [vorurteile] } REC &amp; { [krankhafte-reinlichkeit] &amp; [krankheitsanfaellig] &amp; [platzangst] } NREC &amp; [ausruestungsvorteil] { IF ( [char-advantage] HAS NOT [adlige-abstammung] ) NREC } &amp; [dolche] +1 &amp; [raufen] +1 &amp; [wurfmesser] +1 &amp; [tanzen] +1 &amp; [zechen] +2 &amp; [etikette] +1 &amp; [soziale-anpassungfaetigkeit] +1 &amp; [orientierung] +1 &amp; [wildnisleben] +2 &amp; [goetter-kulte] +1 &amp; [sagen-legenden] +2 &amp; [char-mothertongue] = [garethi] &amp; [garethi] = [$kl] -2 &amp; SEL { +6 &amp; +2 } { [alaani] &amp; [nujuka] } &amp; [ackerbau] +1 &amp; [holzbearbeitung] +2 &amp; [kochen] +1 &amp; [lederarbeiten] +1 &amp; [schneidern] +1 &amp; [kulturkunde-bornland] ADD &amp; { [gelaendekunde-sumpf] &amp; [gelaendekunde-eis] } HALF &amp;  ALL [t_professions] EXCEPT IF [ctg_id_rules] = 0</t>
+  </si>
+  <si>
+    <t>{ [ausruestungsvorteil] &amp; [besonderer-besitz] &amp; [soziale-anpassungsfaehigkeit] &amp; [verbindungen] &amp; [arroganz] &amp; [eitelkeit] &amp; [jaehzorn] &amp; [rachsucht] &amp; [verpflichtungen] &amp; [vorurteile] } REC &amp; { [feenfreund] &amp; [koboldfreund] &amp; [raumangst] } NREC &amp; [armbrust] +1 &amp; [dolche] +1 &amp; [fechtwaffen] +1 &amp; [infanteriewaffen] +1 &amp; [raufen] +1 &amp; [schwimmen] +1 &amp; [tanzen] +1 &amp; [betoeren] +1 &amp; [etiketten] +2 &amp; [gassenwissen] +2 &amp; [menschenkentnnis] +2 &amp; [ueberreden] +1 &amp; [geschichtswissen] +1 &amp; [goetter-kulte] +2 &amp; [mechanik] +1 &amp; [rechnen] +2 &amp; [rechtskunde] +1 &amp; [sagen-legenden] +2 &amp; [char-mothertongue] = [garethi] &amp; [garethi] = [$kl] -2 &amp; SEL { +5 } { [tulamidya] &amp; [rogolan] } &amp; [kusliker-zeichen-schrift] +2 &amp; [ackerbau] +1 &amp; [kulturkunde-horasreich] ADD &amp; [nandusgefaelliges-wissen] HALF &amp;  ALL [t_professions] EXCEPT IF { [ctg_id_rules] = 0 | [kundschafter] | [ritter] }</t>
+  </si>
+  <si>
+    <t>[mr] +1 &amp; { [ausruestungsvorteil] &amp; [besonderer-besitz] &amp; [glueck] &amp; [glueck-spiel] &amp; [resistenz-hitze] &amp; [soziale-anpassungsfaehigkeit] &amp; [verbindungen] &amp; [aberglaube] &amp; [eitelkeit] &amp; [goldiger] &amp; [jaehzorn] &amp; [neugier] &amp; [speisegebote] &amp; [verpfichtungen] &amp; [vorurteile] } REC &amp; { [adlige-abstammung] &amp; [feenfreund] &amp; [koboldfreund] &amp; [resistenz-kaelte] &amp; [raumangst] } NREC &amp; [dolche] +2 &amp; [raufen] +1 &amp; [ringen] +2 &amp; [sebel] +1 &amp; [schleichen] +1 &amp; [verstecken] +1 &amp; [tanzen] +1 &amp; SEL { +1 } { [taschendiebstahl] &amp; [gauklerei] } &amp; [etikette] +1 &amp; [gassenwissen] +1 &amp; [menschenkenntnis] +2 &amp; [verkleiden] +1 &amp; [ueberreden] +1 &amp; [brett-kartenspiel] +2 &amp; [geschichtswissen] +1 &amp; [goetter-kulte] +1 &amp; [rechnen] +1 &amp; [rechtskunde] +1 &amp; [sagen-legenden] +2 &amp; [schaetzen] +2 &amp; [char-mothertongue][ = [tulamidya] &amp; [tulamidya] = [$kl] -2 &amp; [garethi] = [$kl] -4 &amp; [kulturkunde-tulamidien] ADD &amp; ALL [t_professions] EXCEPT IF { [ctg_id_rules] = 0 | [kundschafter] | [ritter] | [jaeger] }</t>
+  </si>
+  <si>
+    <t>{ [ausruestungsvorteil] &amp; [besonderer-besitz] &amp; [sozalie-anpassungsfaehigkeit] &amp; [verbindungen] &amp; [verpflichtungen] &amp; [vorurteile] } REC &amp; { [feenfreund] &amp; [raumangst] } NREC &amp; SEL { +1 } { [armbrust] &amp; [bogen] &amp; [wurfmesser] } &amp; [dolche] +1 &amp; [infanteriewaffen] +1 &amp; [raufen] +1 &amp; [zechen] +1 &amp; [etikette] +1 &amp; [gassenwissen] +1 &amp; [menschenkenntnis] +1 &amp; [ueberreden] +1 &amp; [goetter-kulte] +2 &amp; [heraldik] +1 &amp; [rechnen] +1 &amp; [rechtskunde] +1 &amp; [sagen-legenden] +2 &amp; [char-mothertonguze] = [garethi] &amp; [garethi] = [$kl] -2 &amp; SEL { +3 } { [tulamidya] &amp; [rogolan] &amp; [thorwalsch] } &amp; [ackerbau] +1 &amp; [ortskenntnis] &amp;  SEL { 1 } { [kulturkunde-mittelreich] &amp; [passend] } &amp; ALL [t_professions] EXCEPT IF [ctg_id_rules] = 0</t>
+  </si>
+  <si>
+    <t>[mu] +1 &amp; [aup] +2 &amp; { [resistenz-hitze] &amp; [richtungssinn] &amp; [speisegebote] } AUTO &amp; [raumangst] = 5 &amp; [jaehzorn] = 5 &amp; SEL { =5 } { [arroganz] &amp; [rachsucht] } &amp; { [ausdauernd] &amp; [eisern]&amp; [hohe-lep] &amp; [innerer-kompass] &amp; [schnelle-heilung] &amp; [zaeher-hund] &amp; [arroganz] &amp; [jaehzorn] &amp; [meeresangst] &amp; [prinzipientreue-99-gesetzte-streng] &amp; [prinzipientreue-99-gesetze-schwach] &amp; [rachsucht] &amp; [vorurteile] } REC &amp; { [adlige-abstammung] &amp; [feenfreund] &amp; [koboldfreund] &amp; [soziale-anpassungsfaehrigkeit] &amp; [krankheitsanfaellig] &amp; [lichtempfidnlich] &amp; [lichtscheu] &amp; [platzangst] } NREC &amp; [bogen] +1 &amp; [dolche] +1 &amp; [lanzenreiten] +1 &amp; [raufen] +1 &amp; [ringen] +1 &amp; [saebel] +1 &amp; [speere] +1 &amp; [wurfspeere] +1 &amp; [athletik] +1 &amp; [koerperbeherrschung] +1 &amp; [reiten] +3 &amp; [schwimmen] -1 &amp; [tanzen] +1 &amp; [orientierung] +3 &amp; [wildnisleben] +1 &amp; [brett-kartenspiel] +2 &amp; [goetter-kulte] +1 &amp; [rechnen] +1 &amp; [rechtskunde] +1 &amp; [sagen-legenden] +1 &amp; [schaetzten] +1 &amp; [sternkunde] +1 &amp; [char-mothertongue] = [tulamidya] &amp; [tulamidiya] = [$kl] -2 &amp; [boote-fahren] -1 &amp; { [gelaendekunde-wueste] &amp; [kulturkunde-novadi] } ADD &amp; [waffenloser-kampfstil-unauer] HALF &amp; { [bote] &amp; [gaukler] &amp; [krieger] &amp; [kundschafter] &amp; [magier] &amp; [söldner] &amp; [streuner] &amp; [wundarzt] } ACT</t>
+  </si>
+  <si>
+    <t>[mu] =12 &amp; [ff] =13 &amp; [ge] =12</t>
+  </si>
+  <si>
+    <t>[mu] =12 &amp; [kl] =12 &amp; [in] =12 &amp; [ko] = 11 &amp;</t>
+  </si>
+  <si>
+    <t>[mu] =11 &amp; [ge] =11 &amp; [ko] =12</t>
+  </si>
+  <si>
+    <t>[mu] =11 &amp; [ch] =12 &amp; { [ge] =13 XOR [ff] =13 }</t>
+  </si>
+  <si>
+    <t>[in] =11 &amp; [ge] =12 &amp; [ko] =11</t>
+  </si>
+  <si>
+    <t>[aup] +2 &amp; [so] { &gt; 4 &amp; &lt; 11 } &amp; SEL { +1 } { [armbrust] &amp; [bogen] } &amp; [dolche] +1 &amp; SEL { +1 } { [hiebwaffen] &amp; [saebel] } &amp; [ringen] +1 &amp; [athletik] +1 &amp; SEL { +1 } { [klettern] &amp; [botte-fahren] } &amp; [koerperbeherrschung] + &amp; [reiten] +5 &amp; [schwimmen] +1 &amp; [selbstbeherrschung] +4 &amp; [sinnenschaerfe] +3 &amp; [etikette] +4 &amp; [gassenwissen] +1 &amp; [menschenkenntnis] +1 &amp; [faehrtensuche] +1 &amp; [orientierung] +5 &amp; [wettervorhersage] +3 &amp; [wildnisleben] +2 &amp; [geographie] +3 &amp; [heraldik] +3 &amp; [rechnen] +2 &amp; [rechtskunde] +2 &amp; [tierkunde] +2 &amp; [schrift-passend-kultur] +3 &amp; SEL { +3 &amp; +3 } { [sprachen] } &amp; [kartographie] +5 &amp; [malen-zeichnen] +4 &amp; [reiterkampf] HALF &amp; SEL { 1 } HALF { [gelaendekunde-dschungelkundig] &amp; [gelaendekunde-eiskundig] &amp; [gelaendekunde-gebirgskundig] &amp; [gelaendekunde-hoehlenkundig] &amp; [gelaendekunde-maraskankundig] &amp; [gelaendekunde-meereskundig] &amp; [gelaendekunde-steppenkundig] &amp; [gelaendekunde-sumpfkundig] &amp; [gelaendekunde-waldkundig] &amp; [gelaendekunde-wuestenkundig] } &amp; [ortsnkenntnis-own] HALF &amp; { [ausdauernd] &amp; [eisern] &amp; [gefahreninstinkt] &amp; [gutes-gedaechnis] &amp; [innerer-kompass] &amp; [resistenz-krankheiten] &amp; [richtungssinn] &amp; [verbindungen] &amp; [zaeher-hund] &amp; [prinzipientreue] &amp; [verpfilchtungen] } REC &amp; { [blutrausch] &amp; [dunkelangst] &amp; [fettleibig] &amp; [glasknochen] &amp; [goldgier] &amp; [krankheitsanfaellig] &amp; [kurzatmig] &amp; [neugier] &amp; [platzangst] } NREC</t>
+  </si>
+  <si>
+    <t>[so] { &gt; 1 &amp; &lt;11 } &amp; SEL [goldgier] &amp; SEL { 1 } { { [goldgier] =5 } &amp; { [neugier] =5 } } &amp; [dolche] +3 &amp; [ringen] +1 &amp; [wurfmesser] +1 &amp; [akrobatik] +2 &amp; [athletik]+2 &amp; [kletter] +6 &amp; [koerperbeherrschung] +5 &amp; [schleichen] +5 &amp; [selbstbeherrschung] +2 &amp; [sich-verstecken] +5 &amp; [sinnenschaerfe] +3 &amp; [taschendiebstahl] +2 &amp; [gassenwisen] +4 &amp; [menschenkenntnis] +1 &amp; [sich-verkleiden] +1 &amp; [faehrtensuche] +1 &amp; [fesseln-entfesseln] +1 &amp; [orientierung] +2 &amp; [mechanik] +1 &amp; [rechnen] +2 &amp; [rechtskunde] +1 &amp; [schaetzen] +4 &amp; [malen-zeichnen] +2 &amp; [schloesser-knacken] +7 &amp; { [ortskentnntnis-own] &amp; [talentspezialisierung-klettern-freiklettern] } ADD &amp; { [ausdauernd] &amp; [balance] &amp; [daemmerungssicht] &amp; [gefahreninstinkt] &amp; [gutes-gedaechtnis] &amp; [herausragender-sinn-gehoer] &amp; [herausragender-sinn-tastsinn] &amp; [innerer-kompass] &amp; [richtungssinn] &amp; [schlangenmensch] &amp; [soziale-anpassungsfaehigkeit] &amp; [verbindungen] &amp; [zwergennase] &amp; [gesucht] &amp; [goldgier] &amp; [neugier] &amp; [verpflichtungen] } REC &amp; { [dunkelangst] &amp; [fettleibigkeit] &amp; [hoehenangst] &amp; [nachtblind] &amp; [raumangst] } NREC</t>
+  </si>
+  <si>
+    <t>[so] { &gt;6 &amp; &lt;14 } &amp; [neugier] =5 &amp; [armbrust] +1 &amp; SEL { +2 } { [hiebwaffen] &amp; [saebel] &amp; [saebe] } &amp; [klettern] +2 &amp; [koerperbeherrschung] +1 &amp; [reiten] +3 &amp; [schwimmen] +1 &amp; [sinnenschaerfe] +4 &amp; [etikette] +3 &amp; [menschenkenntnis] +1 &amp; [ueberreden] +2 &amp; [faehrtensuchen] +2 &amp; [orientierung] +3 &amp; [wettervorhersage] +2 &amp; [wildnisleben]+2 &amp; [geographie] +2 &amp; [geschichtswissen]+4 &amp; [goetter-kulte] +3 &amp; [heraldik] +1 &amp; [magiekunde] +3 &amp; [mechanik] +1 &amp; [rechnen] +4 &amp; [rechtskunde] +1 &amp; [sagen-legenden] +2 &amp; [scahetzten] +3 &amp; [sprachkunde] +3 &amp; [sternkunde] +2 &amp; SEL { +5 &amp; 14 &amp; +2 } { [anatomie] &amp; [alchemie] &amp; [bergbau] &amp; [feinmechanik] &amp; [geographie] &amp; [geschichtswissen] &amp; [gesteinskunde] &amp; [goetter-kulte] &amp; [heraldik] &amp; [kartographie] &amp; [mechanik] &amp; [pflanzenkunde] &amp; [rechtskunde] &amp; [sprachkunde] &amp; [sternkunde] &amp; [Tierkunde] } &amp; SEL { +6 &amp; +6 &amp; +2 &amp; +2 } { SPRACHEN } &amp; SEL { +4 &amp; +4 } { SCHRIFTEN } &amp; [boote-fahren] +1 &amp; SEL { +1 } { [feinmechanik] &amp; [schloesser-knacken] } &amp; [hk-gift] +1 &amp; [hk-wunden] +2 % [kartographie] +5 &amp; [malen-zeichnen] +4 &amp; [nandusgefaelliges-wissen] HALF &amp; SEL { 1 } { [kulturkunde-mittelreich] &amp; [kulturkunde-almada] &amp; [kulturkunde-andergast-nostria] &amp; [kulturkunde-bornland] &amp; [kulturkunde-svellttal] &amp; [kulturkunde-nordlande] &amp; [kulturkunde-horasreich] &amp; [kulturkunde-zyklopeninseln] &amp; [kulturkunde-amazonen] &amp; [kulturkunde-aranien] &amp; [kulturkunde-tulamidenlande] &amp; [kulturkunde-novadi] &amp; [kulturkunde-ferkina] &amp; [kulturkunde-zahori] &amp; [kulturkunde-thorwal] &amp; [kulturkunde-gjalskerlaender] &amp; [kulturkunde-fjarninger] &amp; [kulturkunde-waldmenschen] &amp; [kulturkunde-tocamuyac] &amp; [kulturkunde-maraskan] &amp; [kulturkunde-suedaventurien] &amp; [kulturkunde-bukanier] &amp; [kulturkunde-nivesen] &amp; [kulturkunde-norbarden] &amp; [kulturkunde-trollzackers] &amp; [kulturkunde-chwarze-lande] &amp; [kulturkunde-ambosszwerge] &amp; [kulturkunde-brillantzwerge] &amp; [kulturkunde-erzzwerge] &amp; [kulturkunde-huegelzwerge] &amp; [kulturkunde-brobim] &amp; [kulturkunde-auelfen] &amp; [kulturkunde-waldelfen] &amp; [kulturkunde-firnelfen] &amp; [kulturkunde-steppenelfen] &amp; [kulturkunde-orks] &amp; [kulturkunde-goblins] &amp; [kulturkunde-archaische-achaz] &amp; [kulturkunde-stammes-achaz] &amp; [kulturkunde-trolle] &amp; [kulturkunde-grolme] } HALF &amp; { [adlige-abstammung] &amp; [begabung-talentgruppe-sprachen] &amp; [gefahreninstinkt] &amp; [gutes-gedaechtnis] &amp; [innerer-kompass] &amp; [richtungssinn] &amp; [soziale-anpassungsfaehigkeit] &amp; [verbindungen] &amp; [zwergennase] &amp; [verpflichtungen] } REC &amp; { [aberglaube] &amp; [dunkelangst] &amp; [hoehenangst] &amp; [raumangst] } NREC</t>
+  </si>
+  <si>
+    <t>[so] &gt;2 &amp; [so] &lt;8 &amp; [dolche] +1 &amp; SEL { +1 } { [hiebwaffen] &amp; [staebe] +1 } &amp; [raufen] +2 &amp; [wurfmesser] +2 &amp; SEL { +5 &amp; +3 } { [akrobatik] &amp; [athletik] &amp; [gauklereien] } SEL { +2 &amp; +1 } { [kletter] &amp; [reiten] } &amp; [koerperbeherrschung] +5 &amp; [sich-verstecken] +1 &amp; SEL { +3 } { [singen] &amp; [tanzen] } &amp; [taschendiebstahl] +1 &amp; [zechen] +1 &amp; [gasenwissen] +3 &amp; [menschenkenntnis] +4 &amp; [sich-verkleiden] +2 &amp; [ueberreden] +3 &amp; [geographie] +1 &amp; [sagen-legenden] +2 &amp; [schaetzen] +2 &amp; [tierkunde] +2 &amp; SPRACHE &amp; SEL { +4 &amp; +2 } { [abrichten] &amp; [falschspiel] &amp; [malen-zeichnen] &amp; [musizieren] } &amp; [fahrzeug-lenken] +2 &amp; [hk-wunden] +1 &amp; [kochen] +1 &amp; [schneidern]+2 &amp; { [ausweichen-1] &amp; [standfest] } ADD &amp; { [balance] &amp; [feenfreund] &amp; [gefahreninstinkt] &amp; [glueck] &amp; [glueck-spiel] &amp; [gut-aussehend] &amp; [schlangenmensch] &amp; [soziale-anpassungsfaehigkeit] &amp; [wohlklang] &amp; [aberglaube] &amp; [eitelkeit] &amp; [neid] &amp; [neugier] } REC &amp; { [adlige-abstammung] &amp; [unansehnlich] &amp; [wiederwaertiges-aussehen] } NREC</t>
+  </si>
+  <si>
+    <t>[aup] +2 &amp; [so] { &gt;2 &amp; &lt;8 } &amp; SEL { +5 } { [armbrust] &amp; [bogen] &amp; [wurfspeer] } &amp; [dolche] +3 &amp; SEL { +1 } { [hiebwaffen] &amp; [saebel] } &amp; [ringen] +2 &amp; [speere] +3 &amp; SEL { +2 } { [athletik] &amp; [reiten] &amp; [boote-fahren] } &amp; [klettern} +2 &amp; [koerperbeherrschung] +2 &amp; [schleichen] +5 &amp; [schwimmen] +2 &amp; [selbstbeherrschung] +2 &amp; [sich-verstecken] +5 &amp; [sinnenschwarfe] +5 &amp; [simmen-imitieren] +1 &amp; [faehrtensuche] +6 &amp; [fallenstellen] +2 &amp; [fesseln-entfesseln] +3 &amp; [fischen-angeln] +2 &amp; [orientierung] +3 &amp; [wettervorhersage] +3 &amp; [wildnisleben] +5 &amp; [pflanzenkunde]+2 &amp; [tierkunde] +4 &amp; SEL { +2 } { [abrichten] &amp; [bogenbau] } &amp; SEL { +3 } { [fleischer] &amp; [gerber] } &amp; [hk-gift]+3 &amp; [hk-krankheit] +2 &amp; [hk-wunden] +2 &amp; [holzbearbeitung] +4 &amp; [kochen] +1 &amp; [lederarbeiten]+2 &amp; [schneidern] +2 &amp; SEL { 1 } { [gelaendekunde-dschungelkundig] &amp; [gelaendekunde-eiskundig] &amp; [gelaendekunde-gebirgskundig] &amp; [gelaendekunde-hoehlenkundig] &amp; [gelaendekunde-maraskankundig] &amp; [gelaendekunde-meereskundig] &amp; [gelaendekunde-steppenkundig] &amp; [gelaendekunde-sumpfkundig] &amp; [gelaendekunde-waldkundig] &amp; [gelaendekunde-wuestenkundig] } ADD &amp; [scharfschuetze] ADD &amp; { [ausdauernd] &amp; [daemmerungssicht] &amp; [eisern] &amp; [gefahreninstikt] &amp; [herausragender-sinn-gehoer] &amp; [gerausragender-sinn-sicht] &amp; [innerer-kompass] &amp; [richtungssinn] &amp; [zaeher-hund] &amp; [raumangst] } REC &amp; { [soziale-anpassungsfaehigkeit] &amp; [dunkelangst] &amp; [nachtblind] &amp; [platzangst] } NREC</t>
+  </si>
+  <si>
+    <t>[lep] +2 &amp; [aup] +3 &amp; [so] { &gt;7 &amp; &lt;14 } &amp; [akademische-ausbildung-krieger] ADD &amp; [prinzipientreue] =10 &amp; [anderthalbhaender] +6 &amp; [armbrust] +4 &amp; [dolche] +2 &amp; [infanteriewaffen] +3 &amp; [raufen] +2 &amp; [ringen] +3 &amp; [schwerter] +6 &amp; [zweizandschwerter] +4 &amp; [athletik] +4 &amp; [klettern] +2 &amp; [koerperbeherrschung]+2 &amp; [reiten] +5 &amp; [schwimmen] +2 &amp; [selbstbeherrschung] +5 &amp; [sinnenschaerfe] +2 &amp; [zechen] +1 &amp; [etikette] +3 &amp; [fesseln-entfesseln] +1 &amp; [orientierung] +1 &amp; [gesichtswissen]+2 &amp; [goetter-kulte] +2 &amp; [heraldik] +3 &amp; [kriegskunst] +4 &amp; [rechnen] +2 &amp; [rechtskunde] +2 &amp; [sagen-legenden] +2 &amp; [tierkunde] +2 &amp; [kusliker-zeichen-schrift] +4 &amp; [hk-wunden] +3 &amp; [lederarbeiten] +2 &amp; { [linkhand] &amp; [ruestungsgewoehnung-1-langes-kettenhemd] &amp; [schildkampf-1] } ADD &amp; { [adlige-abstammung] &amp; [ausdauernd] &amp; [eisern] &amp; [hohe-lep] &amp; [schhnelle-heilung] &amp; [zaeher-hund] &amp; [arroganz] &amp; [verpflichtungen] } REC &amp; { [blutrausch] &amp; [glasknochen] &amp; [eiunhändig] &amp; [fettleibig] &amp; [krankheitsanfaellig] &amp; [schlechte-regeneration] } NREC</t>
+  </si>
+  <si>
+    <t>[mu] =12 &amp; [in] =12 &amp; [ko] =12</t>
+  </si>
+  <si>
+    <t>[mu] =11 &amp; [kl] =13 &amp; [in] =11 &amp; [ch] =12</t>
+  </si>
+  <si>
+    <t>sub_ctg_id</t>
+  </si>
+  <si>
+    <t>[mr] +2 &amp; [asp] +12 &amp; [so] { &gt;6 &amp; &lt;14 } &amp; { [vollzauberer] &amp; [verpflichtungen] } ADD &amp; [neugier] =5 &amp; [staebe] +2 &amp; [selbstbeherrschung] +2 &amp; [sinnenschaerfe] +2 &amp; [etikette] +3 &amp; [lehren] +2 &amp; [menschenkenntnis] +2 &amp; [ueberreden] +2 &amp; [ueberzeugen] +2 &amp; [anatomie] +1 &amp; [brett-kartenspiel] +1 &amp; [geographie] +2 &amp; [gescichtswissen] +3 &amp; [goetter-kulte] +2 &amp; [magiekunde] +6 &amp; [mechanik] +2 &amp; [pflanzenkunde] +4 &amp; [rechnen] +6 &amp; [rechtskunde] +2 &amp; [sagen-legenden] +2 &amp; [schaetzen] +1 &amp; [sprachenkunde] +1 &amp; [sternkunde] +4 &amp; [tierkunde] +2 &amp; [char-mothertongue] +2 &amp; IF NOT ( [char-mothertongue] = [garethi] ) { [garethi] +4 } &amp; IF NOT ( [char-mothertongue] = [tulamidya] ) { [tulamidya] +4 } &amp; IF ( [char-mothertongue] = [garethi] ) { [bosporano] +6 } &amp; IF ( [char-mothertongue] = [tulamidya] ) { [ur-tulamidya] +6 } &amp; SEL { +7 } { ALL WRITINGS FROM [char-mothertongue] } &amp; SEL { +4 &amp; +4 } { [ur-tulamidya-schrift] &amp; [unauer-grlypen-schrift] &amp; [kusliker-zeichens-schrift] &amp; [tulamidya-schrift] [zhayad-schrift] } &amp; [alchemie] +4 &amp; [hk-gift] +1 &amp; [hk-krankheiten] +1 &amp; [hk-wunden] +2 &amp; [holzbearbeitung] +1 &amp; [kochen] +2 &amp; [malen-zeichnen] +2 &amp; [analys] HOUSE +7 &amp; [armatrutz] HOUSE +6 &amp; [auris-nasus] +5 &amp; [balsam] HOUSE +8 &amp; [blitz] +6 &amp; [claudibus] +4 &amp; [foramen] +4 &amp; [fulminictus] HOUSE &amp; [gardianum] +6 &amp; [odem] +6 &amp; [paralysis] HOUSE +7 &amp; [silentium] HOUSE +5 &amp; [somnigravis] HOUSE +7 &amp; { [raepresentation-gildenmagier] &amp; [grosse-meditation] &amp; [bindung-stab] &amp; [ewige-flamme] &amp; [astrale-meditation] &amp; [regeneration-1] } ADD &amp; [ritualkenntnis]] +3 &amp; { [aufmerksamkeit] &amp; [regeneration-2] &amp; [seil-adepten] &amp; [kraftfokus] } HALF</t>
+  </si>
+  <si>
+    <t>[aup] +2 &amp; [so] { &gt;1 &amp; &lt;8 } &amp; SEL { +1 } { [armbrust] &amp; [bogen] } &amp; [dolche] +2 &amp; SEL { +1 } { [hiebwaffen] &amp; [saebel] } &amp; [ringen] +2 &amp; SEL { +3 } { [speere] &amp; [staebe] } &amp; SEL { +4 &amp; +3 &amp; + 2 } { [athletik] &amp; [boote-fahren] &amp; [reiten] } &amp; [kletter] +3 &amp; [koerperbeherrschung] +2 &amp; [schleichen] +4 &amp; [schwimmen] +2 &amp; [selbstbeherrschung] +2 &amp; [sich-verstecken] +4 &amp; [sinnenschaerfe] +6 &amp; [faehrtensuche] +5 &amp; [fesseln-entfesseln] +3 &amp; [fischen-angeln] +2 &amp; [orientierung] +5 &amp; [wettervorhersage] +3 &amp; [wildnisleben] +4 &amp; [geographie] +2 &amp; SEL { +1 } { [heraldik] &amp; [pflanzenkunde] } &amp; SEL { +2 } { [kriegskunst] &amp; [tierkunde] } &amp; SPRACHEN &amp; [hk-gift] +3 &amp; [gk-krankheiten] +2 &amp; [hk-wunden] +2 &amp; [holzbearbeitung] +2 &amp; [kochen] +1 &amp; [lederarbeiten] +2 &amp; [schneidern] +2 &amp; SEL { 1 } { [gelaendekunde-dschungelkundig] &amp; [gelaendekunde-eiskundig] &amp; [gelaendekunde-gebirgskundig] &amp; [gelaendekunde-hoehlenkundig] &amp; [gelaendekunde-maraskankundig] &amp; [gelaendekunde-meereskundig] &amp; [gelaendekunde-steppenkundig] &amp; [gelaendekunde-sumpfkundig] &amp; [gelaendekunde-waldkundig] &amp; [gelaendekunde-wuestenkundig] } ADD &amp; FIRST [Ortskentnis] HALF &amp; { [ausdauernd] &amp; [balance] &amp; [daemmerungssicht] &amp; [eisern] &amp; [feenfreund] &amp; [gefahreninstinkt] &amp; [herausragender-sinn-sicht] &amp; [herausragender-sinn-gehoer] &amp; [innerer-kompass] &amp; [magiegespuer] &amp; [richtungssinn] &amp; [tierfreund] &amp; [zaeher-hund] &amp; [zeitgefuehl] &amp; [vorurteile] } REC &amp; { [dunkelangst] &amp; [eingeschraenkter-sinn] &amp; [fettleibig] &amp; [glasknochen] &amp; [krankheitsanfaellig] &amp; [kurzatmig] &amp; [lahm] &amp; [nachtblind] &amp; [platzangst] } NREC</t>
+  </si>
+  <si>
+    <t>[mu] =12 &amp; [ge] =12 &amp; [ko] =11 &amp; [kk] =11</t>
+  </si>
+  <si>
+    <t>[so] { &gt;0 &amp; &lt;11 } &amp; SEL { 1 } { [aberglaube] &amp; [goldgier] =5 } ADD &amp; [dolche] +1 &amp; SEL { +4 &amp; +2 } { [hiebwaffen] &amp; [saebel] } &amp; [raufen] +3 &amp; SEL { +3 &amp; +2 } { [crossbows] &amp; [siege-weapons] &amp; [blowpipes] &amp; [bows] &amp; [discus] &amp; [slingshots] &amp; [throwing-axes] &amp; [throwing-knife] &amp; [javelins] } &amp; [akrobatik] +2 &amp; [athletik] +2 &amp; [klettern] +4 &amp; [koerperbeherrschung] +4 &amp; [schwimmen] +3 &amp; [selbstbeherrschung] +1 &amp; [zechen] +3 &amp; [gassenwissen] +1 &amp; [menschenkenntnis] +1 &amp; [fesseln-entfesseln] +3 &amp; [fischen-angeln] +3 &amp; [orientierung] +2 &amp; [wettervorhersage] +3 &amp; [geographie] +2 &amp; [kriegskunst] +2 &amp; [sagen-legenden] +1 &amp; [schaetzen] +2 &amp; SPRACHEN &amp; [boote-fahren] +4 &amp; [hk-wunden] +1 &amp; [holzbearbeitung] +2 &amp; [lederarbeiten] +2 &amp; SEL { +2 } { [kochen] &amp; [mechanik] &amp; [schneidern] &amp; [sternkunde] &amp; [zimmermann] } &amp; [seefahrt] +4 &amp; { [gelaendekunde-meer] &amp; [standfest] } ADD &amp; [kampf-wasser} HALF &amp; { [hohe-lep] &amp; [innerer-kompass] &amp; [schnelle-heilung] &amp; [zaeher-hund] &amp; [aberglaube] &amp; [gesucht] &amp; [jaehzorn] } REC &amp; { [adlige-abstammung] &amp; [hoehenangst] &amp; [meeresangst] &amp; [platzangst] &amp; [schlechte-regeneration] } NREC</t>
+  </si>
+  <si>
+    <t>[mu] =12 &amp; [ko] =12 &amp; [kk] =12</t>
+  </si>
+  <si>
+    <t>Rüstungsgewöhnung muss noch angepasst werden</t>
+  </si>
+  <si>
+    <t>[aup] +3 &amp; [lep] +2 &amp; [so] { &gt;7 &amp; &lt;14 } &amp; { [adlige-abstammung] &amp; [verpflichtungen] } ADD &amp; [prinzipientreue] =10 &amp; SEL { +7 &amp; +4 } { [anderthalbhaender] &amp; [hiebwaffen] &amp; [schwerter] &amp; [zweihandschwerter] } &amp; SEL { +4 } { [armbrust] &amp; [bogen] &amp; [wurfspeer] } &amp; [dolche] +3 &amp; [lanzenreiten] +7 &amp; [raufen] +1 &amp; [ringen] +3 &amp; [athletik] +3 &amp; [koerperbeherrschung] +3 &amp; [reiten] +7 &amp; [selbstbeherrschung]+5 &amp; [sinnenschaerfe] +2 &amp; [tanzen] +2 &amp; [etikette] +5 &amp; [lehren] +1 &amp; [menschenlkenntnis] +4 &amp; [orientierung] +2 &amp; [brett-kartenspiel] +1 &amp; [geschichtswissen] +2 &amp; [goetter-kulte] +2 &amp; [heraldik] +5 &amp; [kriegskunst] +4 &amp; [rechnen] +4 &amp; [rechtskunde] +3 &amp; SEL { +4 } { ALL WRITINGS FROM [char-mothertongue] } &amp; [abrichten] +2 &amp; [hk-wunden] +2 &amp; { [linkhand] &amp; [reiterkampf] &amp; [ruestungsgewoehnung-1-kettenhemd] &amp; [schildkampf-1] } ADD &amp; [ruestungsgewoehnung-2] HALF &amp; { [ausdauernd] &amp; [ausruestungsvorteil] &amp; [eisern] &amp; [hohe-lep] &amp; [verbindungen] &amp; [zaeher-hund] &amp; [arroganz] &amp; [eitelkeit] &amp; [vorurteile] } REC &amp; { [blutrausch] &amp; [einhaendig] &amp; [soziale-anpassungsfaehigkeit] &amp; [fettleibig] &amp; [glasknochen] &amp; [schlechte-regeneration] } NREC</t>
+  </si>
+  <si>
+    <t>[mu] =12 &amp; [ge] =12 &amp; [ko] =13 &amp; [kk] =12</t>
+  </si>
+  <si>
+    <t>[mu] =12 &amp; [ge] =12 &amp; [ko] =12 &amp; [kk] =11</t>
+  </si>
+  <si>
+    <t>[lep] +1 &amp; [aup] +2 &amp; [so] { &gt;1 &amp; &lt;11 } &amp; SEL { +5 &amp; +3 } { [anderthalbhaender] &amp; [hiebwaffen] &amp; [kettenwaffen] &amp; [sebel] &amp; [schwerter] &amp; [speere] } &amp; SEL { +2 } { [armbrust] &amp; [bogen] &amp; [wurfspeer] &amp; [wurfbeil] &amp; [wurfmesser] } &amp; [dolche] +3 &amp; [infanteriewaffen] +3 &amp; [raufen] +3 &amp; [ringen] +3 &amp; [athletik] +2 &amp; [klettern] +1 &amp; [koerperbeherrschung] +2 &amp; [schleichen] +2 &amp; [selbstbeherrschung] +1 &amp; [sich-verstecken] +1 &amp; [zechen] +3 &amp; [gassenwissen] +1 &amp; [menschenkenntnis] +2 &amp; [faehrtensuche] +2 &amp; [fallenstellen] +2 &amp; [fesseln-entfesseln] +1 &amp; [fischen-angeln] +1 &amp; [orientierung] +1 &amp; [wettervorhersage] +1 &amp; [wildnislebenm] +2 &amp; [heraldik] +1 &amp; [kriegskunst] +3 &amp; [rechtskunde] +1 &amp; [schaetzen] +2 &amp; [tierkunde] +2 &amp; SPRACHE &amp; [hk-wunden] +2 &amp; [holzbeareitung] +3 &amp; [kochen] +1 &amp; [lederarbeiten] +2 &amp; [schneidern] +2 &amp; { [linkhand] &amp; [ruestungsgewoehnung-1] &amp; [schildkampf-1] } ADD &amp; { [ruestungsgewoehnung-2] &amp; [schildkampf-2] } HALF &amp; { [ausdauernd] &amp; [eisern] &amp; [gefahreninstinkt] &amp; [kampfrausch] &amp; [hohe-lep] &amp; [richtungssinn] &amp; [schnelle-hjeilung] &amp; [schnelle-heilung] &amp; [soziale-anpassungsfaehigkeit] &amp; [zaeher-hund] &amp; [aberglaube] &amp; [gesucht] &amp; [goldgier] &amp; [vorurteile] } REC &amp; { [adlige-abstammung] &amp; [fettleibig] &amp; [glasknochen] &amp; [kurzatmig] &amp; [lahm] &amp; [schlechte-regeneration] } NREC</t>
+  </si>
+  <si>
+    <t>[mu] =11 &amp; [in] =12 &amp; [ch] =12 &amp; [ff] =12</t>
+  </si>
+  <si>
+    <t>Verbindungen…</t>
+  </si>
+  <si>
+    <t>[so] { &gt;1 &amp; &lt;11 } &amp; [soziale-anpassungsfaehigkeit] ADD &amp; [verbindungen] =25 &amp; [dolche] +3 &amp; SEL { +2 } { [fechtwaffen] &amp; [hiebwaffen] &amp; [saebel] &amp; [schwerter] } &amp; [raufen] +2 &amp; [ringen] +3 &amp; [athletik] +2 &amp; [klettern] +1 &amp; [koerperbeherrschung] +2 &amp; [schleichen] +3 &amp; [selbstbeherrschung] +1 &amp; [sich-verstecken] +3 &amp; [sinnenschaerfe] +2 &amp; [tanzen] +3 &amp; [taschendiebstahl] +5 &amp; [zechen] +3 &amp; [betoeren] +2 &amp; [etikette] +2 &amp; [gasssenwissen] +5 &amp; [menschenkenntnis]+5 &amp; [sichverkleiden] +2 &amp; [ueberreden] +3 &amp; [rechnen] +2 &amp; [sagen-legenden] +1 &amp; [schaetzen] +3 &amp; SPRACHE &amp; [falschspiel] +2 &amp; [schloesser-knacken] +2 &amp; [aufmerksamkeit] ADD &amp; { [gefahreninstinkt] &amp; [glueck] &amp; [glueck-spiel] &amp; [gut-aussehend] &amp; [verbindungen] &amp; [wohlklang] &amp;[aberglaube] &amp; [eitelkeit] &amp; [gesucht] &amp; [goldgier] &amp; [neugier] } REC &amp; [adlige-abstammung] NREC</t>
+  </si>
+  <si>
+    <t>[in] =12 &amp; [ch] =11 &amp; [ff] =13</t>
+  </si>
+  <si>
+    <t>[so] { &gt;4 &amp; &lt;11 } &amp; [resistenz-krankheiten] ADD &amp; [dolche] +2 &amp; SEL { +1 } { [hiebwaffen] &amp; [saebel] } &amp; [raufen] +3 &amp; [ringen] +3 &amp; [staebe] +2 &amp; [selbstbeherrschung] +2 &amp; [sinnenschaerfe] +2 &amp; [zechen] +2 &amp; [etikette] +1 &amp; [gasenwissen] +3 &amp; [menschenkenntnis] +5 &amp; [ueberreden] +4 &amp; [ueberzeugen] +1 &amp; [fesseln-entfesseln] +1 &amp; [anatomie] +3 &amp; [goetter-kulte] +2 &amp; [magiekunde] +1 &amp; [pflanzenkunde] +4 &amp; [rechnen] +3 &amp; [rechtskunde] +2 &amp; [sagen-legenden] +1 &amp; SEL { +4 } { ALL WRITINGS FROM [char-mothertongue] } &amp; SPRACHE &amp; [hk-gifte] +3 &amp; [hk-krankheiten] +3 &amp; [hk-wunden] +6 &amp; [kochen] +4 &amp; [betaeubungsschlag] HALF &amp; [verbindungen] REC &amp; { [adlige-abstammung] &amp; [eitelkeit] &amp; [krankheitsanfaellig] &amp; [totenangst] } NREC</t>
+  </si>
+  <si>
+    <t>[so] { &gt;2 &amp; &lt;14 } &amp; SEL { +2 } { [gaukeleien] &amp; [simmen-imitieren] } &amp; [singen] +5 &amp; [sinnenschaerfe] +2 &amp; [tanzen] +5 &amp; [betoeren] +1 &amp; [lehren] +4 &amp; [menschenkenntnis] LEAD +4 &amp; [ueberreden] +2 &amp; [ueberzeugen] LEAD +3 &amp; [geschichtswissen] LEAD +2 &amp; [magiekunde] LEAD +3 &amp; [sagen-legenden] LEAD +6 &amp; [sternkunde] +3 &amp; [isdira] +4 &amp; [asdharia] +8 &amp; SPRACHE &amp; [isdira-schrift] +9 &amp; [asdharia-schrift] +9 &amp; [malen-zeichnen] +4 &amp; [musizieren] +5 &amp; [blick-gedanken] +6 &amp; [gedanken-bilder] +6 &amp; [einfluss-bannen] HOUSE +7 &amp; [elfenstimme] HOUSE +8 &amp; [odem] +5 &amp; [sanftmut] HOUSE +7 &amp; [seidenzunge] HOUSE +8 &amp; { [lied-lieder] &amp; [erinnerungsmelodie] } ADD &amp; { [sorgenlied] &amp; [friedenslied] &amp; [windgefluester] &amp; [zaubermelodie] } HALF &amp; { [astralmacht] &amp; [gutes-gedaechtnis] } REC</t>
+  </si>
+  <si>
+    <t>[ge] =13 &amp; [ko] =12 &amp; [char-culture] = [auelfen]</t>
+  </si>
+  <si>
+    <t>[ch] =13 &amp; [in] =13 &amp; [char-culture] = [auelfen]</t>
+  </si>
+  <si>
+    <t>[so] { &gt;2 &amp; &lt;14 } &amp; SEL { +2 } { [bogen] &amp; [wurfmesser] } [dolche] +2 &amp; SEL { +3 } { [fechtwaffen] &amp; [hiebwaffen] &amp; [saebel] &amp; [schwerter] &amp; [speere] &amp; [staebe] } &amp; [athletik] +3 &amp; [klettern] +2 &amp; [koerperbeherrschung]+3 &amp; [schleichen] +3 &amp; [schwimmen] +2 &amp; [sich-verstecken] +3 &amp; [sinnenschaerfe] +4 &amp; [stimmen-imitieren] LEAD +2 &amp; [faehretnsuche]+5 &amp; SEL { +3 } { [fallenstellen] &amp; [fischen-angeln] } &amp; [fesseln-entfesseln] +3 &amp; [orientierung] +4 &amp; [wettervorhersage] +3 &amp; [wildnisleben] +3 &amp; [pflanzenkunde] LEAD +3 &amp; [sternkunde] +1 &amp; [tierkunde] LEAD +5 &amp; [bogenbau] +3 &amp; [boote-fahren] +2 &amp; [hk-wunden] +1 &amp; [adlerauge] HOUSE 8 &amp; [adlerschwingen] +4 &amp; [exposami] +5 &amp; [movimento] +7 &amp; [nebelwand] HOUSE +6 [visibili] HOUSE +7 &amp; [weisse-maehn] HOUSE +6 &amp; SEL { 1 } { [gelaendekunde-dschungelkundig] &amp; [gelaendekunde-eiskundig] &amp; [gelaendekunde-gebirgskundig] &amp; [gelaendekunde-hoehlenkundig] &amp; [gelaendekunde-maraskankundig] &amp; [gelaendekunde-meereskundig] &amp; [gelaendekunde-steppenkundig] &amp; [gelaendekunde-sumpfkundig] &amp; [gelaendekunde-waldkundig] &amp; [gelaendekunde-wuestenkundig] } ADD &amp; { [ausweichen-1] &amp; [ausweichen-2] } HALF &amp; { [astralmacht] &amp; [ausdauernd] &amp; [eisern] &amp; [entfernungssinn] &amp; [gefahreninstinkt] &amp; [tierfreund] } REC &amp; { [klurzatmig] &amp; [lahm] } NREC</t>
   </si>
 </sst>
 </file>
@@ -2742,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF64AA8-8A48-4D17-8607-268D13AA7A05}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,10 +2890,10 @@
         <v>338</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>266</v>
@@ -2839,7 +2929,7 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -2875,7 +2965,7 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -2889,7 +2979,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F4" s="2">
         <v>5</v>
@@ -2911,7 +3001,7 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="N4" s="2">
         <v>0</v>
@@ -2947,7 +3037,7 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -2983,7 +3073,7 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -3019,7 +3109,7 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -3759,7 +3849,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F30" s="2">
         <v>5</v>
@@ -3825,7 +3915,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F32" s="2">
         <v>5</v>
@@ -3858,7 +3948,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F33" s="2">
         <v>5</v>
@@ -3981,8 +4071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD6BC79-3E83-4AF2-8E9F-109BFFBD8B35}">
   <dimension ref="A1:J141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,13 +4110,13 @@
         <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>266</v>
@@ -4040,7 +4130,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -4048,8 +4138,8 @@
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>694</v>
+      <c r="I2" s="2" t="s">
+        <v>708</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -4063,7 +4153,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F3" s="2">
         <v>6</v>
@@ -4071,8 +4161,8 @@
       <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>695</v>
+      <c r="I3" s="2" t="s">
+        <v>704</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -4086,7 +4176,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -4094,8 +4184,8 @@
       <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>696</v>
+      <c r="I4" s="2" t="s">
+        <v>705</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -4109,7 +4199,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F5" s="2">
         <v>3</v>
@@ -4117,8 +4207,8 @@
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>697</v>
+      <c r="I5" s="2" t="s">
+        <v>706</v>
       </c>
       <c r="J5" s="2">
         <v>0</v>
@@ -4132,7 +4222,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -4140,8 +4230,8 @@
       <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>698</v>
+      <c r="I6" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -4155,7 +4245,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F7" s="2">
         <v>3</v>
@@ -4163,8 +4253,8 @@
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>700</v>
+      <c r="I7" s="2" t="s">
+        <v>709</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
@@ -4178,7 +4268,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -4187,10 +4277,10 @@
         <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -4204,7 +4294,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -4213,7 +4303,7 @@
         <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -4227,7 +4317,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
@@ -4236,7 +4326,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -4250,13 +4340,16 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -4278,6 +4371,9 @@
       <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>703</v>
+      </c>
       <c r="J12" s="2">
         <v>0</v>
       </c>
@@ -4314,7 +4410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
@@ -4322,40 +4418,31 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
@@ -4363,7 +4450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4371,7 +4458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -4379,7 +4466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
@@ -4387,7 +4474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
@@ -4395,7 +4482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
@@ -4403,7 +4490,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
@@ -4411,7 +4498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -4419,7 +4506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
@@ -4427,7 +4514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
@@ -4435,7 +4522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
@@ -4443,7 +4530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
@@ -5330,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E31E22-CCEC-4B1B-9EA4-819979EE0A37}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5353,7 +5440,7 @@
     <col min="13" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5367,31 +5454,31 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5399,7 +5486,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -5410,11 +5497,17 @@
       <c r="I2" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>715</v>
+      </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5422,7 +5515,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -5433,11 +5526,17 @@
       <c r="I3" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>716</v>
+      </c>
       <c r="L3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5445,7 +5544,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G4" s="2">
         <v>6</v>
@@ -5456,11 +5555,17 @@
       <c r="I4" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>717</v>
+      </c>
       <c r="L4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5468,7 +5573,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G5" s="2">
         <v>2</v>
@@ -5479,11 +5584,17 @@
       <c r="I5" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>718</v>
+      </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -5491,7 +5602,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G6" s="2">
         <v>11</v>
@@ -5502,11 +5613,17 @@
       <c r="I6" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>719</v>
+      </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
@@ -5514,7 +5631,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G7" s="2">
         <v>24</v>
@@ -5525,11 +5642,17 @@
       <c r="I7" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>720</v>
+      </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -5537,7 +5660,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G8" s="2">
         <v>7</v>
@@ -5548,11 +5671,17 @@
       <c r="I8" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>725</v>
+      </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
@@ -5560,7 +5689,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G9" s="2">
         <v>18</v>
@@ -5571,11 +5700,17 @@
       <c r="I9" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>724</v>
+      </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
@@ -5583,7 +5718,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -5594,11 +5729,17 @@
       <c r="I10" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>727</v>
+      </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -5606,7 +5747,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G11" s="2">
         <v>20</v>
@@ -5617,11 +5758,20 @@
       <c r="I11" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>730</v>
+      </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
@@ -5629,7 +5779,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
@@ -5640,11 +5790,20 @@
       <c r="I12" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>733</v>
+      </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -5652,7 +5811,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -5663,11 +5822,20 @@
       <c r="I13" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>736</v>
+      </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
@@ -5675,7 +5843,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -5686,11 +5854,17 @@
       <c r="I14" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J14" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>738</v>
+      </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -5698,7 +5872,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -5712,11 +5886,17 @@
       <c r="I15" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>739</v>
+      </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
@@ -5724,7 +5904,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -5737,6 +5917,12 @@
       </c>
       <c r="I16" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
@@ -6088,7 +6274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4AB1AC-E52F-4EB0-93C7-116B048FA288}">
   <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
@@ -6128,28 +6314,28 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>266</v>
@@ -6163,7 +6349,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -6189,7 +6375,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -6215,7 +6401,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -6241,7 +6427,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -6267,7 +6453,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -6279,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N6" s="2">
         <v>0</v>
@@ -6293,7 +6479,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -6305,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -6319,7 +6505,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -6331,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N8" s="2">
         <v>0</v>
@@ -6345,7 +6531,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -6357,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -6371,7 +6557,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -6397,7 +6583,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -6423,7 +6609,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -6452,7 +6638,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -6478,7 +6664,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -6507,7 +6693,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -6533,7 +6719,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -6562,7 +6748,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -6588,7 +6774,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -6617,7 +6803,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -6643,7 +6829,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -6672,7 +6858,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -6698,7 +6884,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -6727,7 +6913,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -6756,7 +6942,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -6785,7 +6971,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -6814,7 +7000,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -6840,7 +7026,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -6866,7 +7052,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -6892,7 +7078,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -6918,7 +7104,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -6944,7 +7130,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -6956,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -6970,7 +7156,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E32" s="2">
         <v>3</v>
@@ -6996,7 +7182,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -7022,7 +7208,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -7048,7 +7234,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -7074,7 +7260,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -7100,7 +7286,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -7126,7 +7312,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -7138,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
@@ -7152,7 +7338,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -7181,7 +7367,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -7210,7 +7396,7 @@
         <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -7239,7 +7425,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -7268,7 +7454,7 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -7294,7 +7480,7 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -7320,7 +7506,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -7332,7 +7518,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
@@ -7346,7 +7532,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
@@ -7358,7 +7544,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
@@ -7372,7 +7558,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -7398,7 +7584,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -7424,7 +7610,7 @@
         <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -7450,7 +7636,7 @@
         <v>31</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -7476,7 +7662,7 @@
         <v>31</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -7502,7 +7688,7 @@
         <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -7528,7 +7714,7 @@
         <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E53" s="2">
         <v>2</v>
@@ -7554,7 +7740,7 @@
         <v>31</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -7580,7 +7766,7 @@
         <v>31</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
@@ -7606,7 +7792,7 @@
         <v>31</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E56" s="2">
         <v>3</v>
@@ -7632,7 +7818,7 @@
         <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -7658,7 +7844,7 @@
         <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -7684,7 +7870,7 @@
         <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -7710,7 +7896,7 @@
         <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -7736,7 +7922,7 @@
         <v>31</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -7762,7 +7948,7 @@
         <v>31</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -7788,7 +7974,7 @@
         <v>31</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -7814,7 +8000,7 @@
         <v>31</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -7840,7 +8026,7 @@
         <v>31</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -7866,7 +8052,7 @@
         <v>31</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -7892,7 +8078,7 @@
         <v>31</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -7918,7 +8104,7 @@
         <v>31</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -7944,7 +8130,7 @@
         <v>31</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -7970,7 +8156,7 @@
         <v>31</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -7996,7 +8182,7 @@
         <v>31</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -8022,7 +8208,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -8048,7 +8234,7 @@
         <v>31</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -8077,7 +8263,7 @@
         <v>31</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -8106,7 +8292,7 @@
         <v>31</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -8132,7 +8318,7 @@
         <v>31</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -8158,7 +8344,7 @@
         <v>31</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E77" s="2">
         <v>1</v>
@@ -8184,7 +8370,7 @@
         <v>31</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -8210,7 +8396,7 @@
         <v>31</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -8236,7 +8422,7 @@
         <v>31</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E80" s="2">
         <v>3</v>
@@ -8745,34 +8931,34 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>266</v>
@@ -8786,7 +8972,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -8798,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
@@ -8812,7 +8998,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -8838,7 +9024,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -8850,7 +9036,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P4" s="2">
         <v>0</v>
@@ -8864,7 +9050,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -8876,7 +9062,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P5" s="2">
         <v>0</v>
@@ -8890,7 +9076,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -8902,7 +9088,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P6" s="2">
         <v>0</v>
@@ -8916,7 +9102,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -8928,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P7" s="2">
         <v>0</v>
@@ -8942,7 +9128,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -8968,7 +9154,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -8994,7 +9180,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -9006,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P10" s="2">
         <v>0</v>
@@ -9020,7 +9206,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
@@ -9046,7 +9232,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -9058,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -9072,7 +9258,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -9098,7 +9284,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -9124,7 +9310,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -9150,7 +9336,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -9179,7 +9365,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -9208,7 +9394,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -9237,7 +9423,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -9266,7 +9452,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -9292,7 +9478,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -9304,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
@@ -9318,7 +9504,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -9344,7 +9530,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -9370,7 +9556,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -9396,7 +9582,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -9408,7 +9594,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P25" s="2">
         <v>0</v>
@@ -9422,7 +9608,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -9434,7 +9620,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -9448,7 +9634,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -9460,7 +9646,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -9474,7 +9660,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -9500,7 +9686,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -9512,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
@@ -9526,7 +9712,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -9538,7 +9724,7 @@
         <v>3</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -9552,7 +9738,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -9564,7 +9750,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -9578,7 +9764,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -9590,7 +9776,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -9604,7 +9790,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -9630,7 +9816,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -9642,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P34" s="2">
         <v>0</v>
@@ -9656,7 +9842,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -9682,7 +9868,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -9708,7 +9894,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -9734,7 +9920,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -9746,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
@@ -9760,7 +9946,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -9786,7 +9972,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -9812,7 +9998,7 @@
         <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -9838,7 +10024,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -9850,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
@@ -9864,7 +10050,7 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -9876,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
@@ -9890,7 +10076,7 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
@@ -9902,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P44" s="2">
         <v>0</v>
@@ -9916,7 +10102,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -9928,7 +10114,7 @@
         <v>2</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P45" s="2">
         <v>0</v>
@@ -9942,7 +10128,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
@@ -9954,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
@@ -9968,7 +10154,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -9980,7 +10166,7 @@
         <v>3</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
@@ -9994,7 +10180,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -10014,7 +10200,7 @@
         <v>31</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -10026,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
@@ -10040,7 +10226,7 @@
         <v>31</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -10052,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
@@ -10066,7 +10252,7 @@
         <v>31</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -10086,7 +10272,7 @@
         <v>31</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -10112,7 +10298,7 @@
         <v>31</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -10124,7 +10310,7 @@
         <v>2</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
@@ -10138,7 +10324,7 @@
         <v>31</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
@@ -10164,7 +10350,7 @@
         <v>31</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E55" s="2">
         <v>3</v>
@@ -10190,7 +10376,7 @@
         <v>31</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
@@ -10216,7 +10402,7 @@
         <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -10228,7 +10414,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P57" s="2">
         <v>0</v>
@@ -10242,7 +10428,7 @@
         <v>31</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E58" s="2">
         <v>1</v>
@@ -10268,7 +10454,7 @@
         <v>31</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E59" s="2">
         <v>1</v>
@@ -10294,7 +10480,7 @@
         <v>31</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -10317,7 +10503,7 @@
         <v>31</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -10346,7 +10532,7 @@
         <v>31</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E62" s="2">
         <v>1</v>
@@ -10369,7 +10555,7 @@
         <v>31</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -10398,7 +10584,7 @@
         <v>31</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E64" s="2">
         <v>1</v>
@@ -10421,7 +10607,7 @@
         <v>31</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E65" s="2">
         <v>1</v>
@@ -10450,7 +10636,7 @@
         <v>31</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -10473,7 +10659,7 @@
         <v>31</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -10502,7 +10688,7 @@
         <v>31</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -10525,7 +10711,7 @@
         <v>31</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -10554,7 +10740,7 @@
         <v>31</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E70" s="2">
         <v>1</v>
@@ -10577,7 +10763,7 @@
         <v>31</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -10606,7 +10792,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -10635,7 +10821,7 @@
         <v>31</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -10664,7 +10850,7 @@
         <v>31</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
@@ -10693,7 +10879,7 @@
         <v>31</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -10719,7 +10905,7 @@
         <v>31</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -10731,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="P76" s="2">
         <v>0</v>
@@ -10745,7 +10931,7 @@
         <v>31</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -10757,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P77" s="2">
         <v>0</v>
@@ -10771,7 +10957,7 @@
         <v>31</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -10797,7 +10983,7 @@
         <v>31</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E79" s="2">
         <v>1</v>
@@ -10825,8 +11011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3C99E3-6E63-4E8B-9359-5939133F443A}">
   <dimension ref="A1:M203"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139:D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10864,13 +11050,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>523</v>
+        <v>723</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>265</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>340</v>
+        <v>49</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>50</v>
@@ -12027,7 +12213,7 @@
         <v>31</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>54</v>
@@ -12068,7 +12254,7 @@
         <v>31</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>89</v>
@@ -12109,7 +12295,7 @@
         <v>31</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>54</v>
@@ -12150,7 +12336,7 @@
         <v>31</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>54</v>
@@ -12191,7 +12377,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>89</v>
@@ -12232,7 +12418,7 @@
         <v>31</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>89</v>
@@ -12273,7 +12459,7 @@
         <v>31</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>54</v>
@@ -12314,7 +12500,7 @@
         <v>31</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>89</v>
@@ -12355,7 +12541,7 @@
         <v>31</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>89</v>
@@ -12396,7 +12582,7 @@
         <v>31</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>89</v>
@@ -12437,7 +12623,7 @@
         <v>31</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>89</v>
@@ -12478,7 +12664,7 @@
         <v>31</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>89</v>
@@ -12519,7 +12705,7 @@
         <v>31</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>89</v>
@@ -12560,7 +12746,7 @@
         <v>31</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>54</v>
@@ -12601,7 +12787,7 @@
         <v>31</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>54</v>
@@ -12642,7 +12828,7 @@
         <v>31</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>89</v>
@@ -12683,7 +12869,7 @@
         <v>31</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>54</v>
@@ -12724,7 +12910,7 @@
         <v>31</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>89</v>
@@ -12765,7 +12951,7 @@
         <v>31</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>54</v>
@@ -12806,7 +12992,7 @@
         <v>31</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>54</v>
@@ -12847,7 +13033,7 @@
         <v>31</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>54</v>
@@ -12888,7 +13074,7 @@
         <v>31</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>54</v>
@@ -12929,7 +13115,7 @@
         <v>31</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>89</v>
@@ -12970,7 +13156,7 @@
         <v>31</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>54</v>
@@ -13011,7 +13197,7 @@
         <v>31</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>54</v>
@@ -13052,7 +13238,7 @@
         <v>31</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>54</v>
@@ -13093,7 +13279,7 @@
         <v>31</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>89</v>
@@ -13134,7 +13320,7 @@
         <v>31</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>54</v>
@@ -13175,7 +13361,7 @@
         <v>31</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>89</v>
@@ -13216,7 +13402,7 @@
         <v>31</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>54</v>
@@ -13257,7 +13443,7 @@
         <v>31</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>54</v>
@@ -13298,7 +13484,7 @@
         <v>31</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>54</v>
@@ -13339,7 +13525,7 @@
         <v>31</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>89</v>
@@ -13380,7 +13566,7 @@
         <v>31</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>54</v>
@@ -13421,7 +13607,7 @@
         <v>31</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>89</v>
@@ -13462,7 +13648,7 @@
         <v>31</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>54</v>
@@ -13503,7 +13689,7 @@
         <v>31</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>54</v>
@@ -13544,7 +13730,7 @@
         <v>31</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>54</v>
@@ -13585,7 +13771,7 @@
         <v>31</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>54</v>
@@ -13626,7 +13812,7 @@
         <v>31</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>54</v>
@@ -13667,7 +13853,7 @@
         <v>31</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>54</v>
@@ -13708,7 +13894,7 @@
         <v>31</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>89</v>
@@ -13749,7 +13935,7 @@
         <v>31</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>54</v>
@@ -13790,7 +13976,7 @@
         <v>31</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>54</v>
@@ -13831,7 +14017,7 @@
         <v>31</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>54</v>
@@ -13872,7 +14058,7 @@
         <v>31</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>54</v>
@@ -13913,7 +14099,7 @@
         <v>31</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>54</v>
@@ -13954,7 +14140,7 @@
         <v>31</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>54</v>
@@ -13995,7 +14181,7 @@
         <v>31</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>54</v>
@@ -14036,7 +14222,7 @@
         <v>31</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>54</v>
@@ -14077,7 +14263,7 @@
         <v>31</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>89</v>
@@ -14118,7 +14304,7 @@
         <v>31</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>54</v>
@@ -14159,7 +14345,7 @@
         <v>31</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>89</v>
@@ -14200,7 +14386,7 @@
         <v>31</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>54</v>
@@ -14241,7 +14427,7 @@
         <v>31</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>54</v>
@@ -14282,7 +14468,7 @@
         <v>31</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>54</v>
@@ -14323,7 +14509,7 @@
         <v>31</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>54</v>
@@ -14364,7 +14550,7 @@
         <v>31</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>54</v>
@@ -14405,7 +14591,7 @@
         <v>18</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>54</v>
@@ -14446,7 +14632,7 @@
         <v>21</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>54</v>
@@ -14487,7 +14673,7 @@
         <v>21</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>54</v>
@@ -14528,7 +14714,7 @@
         <v>18</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>54</v>
@@ -14569,7 +14755,7 @@
         <v>18</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>54</v>
@@ -14610,7 +14796,7 @@
         <v>21</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>54</v>
@@ -14651,7 +14837,7 @@
         <v>18</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>54</v>
@@ -14692,7 +14878,7 @@
         <v>21</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>54</v>
@@ -14733,7 +14919,7 @@
         <v>15</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>54</v>
@@ -14774,7 +14960,7 @@
         <v>16</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>54</v>
@@ -14815,7 +15001,7 @@
         <v>18</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>54</v>
@@ -14835,7 +15021,7 @@
         <v>31</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E98" s="2">
         <v>5</v>
@@ -14856,7 +15042,7 @@
         <v>18</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>54</v>
@@ -14897,7 +15083,7 @@
         <v>15</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>54</v>
@@ -14938,7 +15124,7 @@
         <v>18</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>54</v>
@@ -14979,7 +15165,7 @@
         <v>18</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>54</v>
@@ -15020,7 +15206,7 @@
         <v>21</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>54</v>
@@ -15061,7 +15247,7 @@
         <v>24</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>54</v>
@@ -15102,7 +15288,7 @@
         <v>21</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>54</v>
@@ -15143,7 +15329,7 @@
         <v>21</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>54</v>
@@ -15184,7 +15370,7 @@
         <v>15</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L106" s="2" t="s">
         <v>54</v>
@@ -15225,7 +15411,7 @@
         <v>10</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L107" s="2" t="s">
         <v>54</v>
@@ -15266,7 +15452,7 @@
         <v>20</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>54</v>
@@ -15307,7 +15493,7 @@
         <v>20</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L109" s="2" t="s">
         <v>54</v>
@@ -15348,7 +15534,7 @@
         <v>21</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L110" s="2" t="s">
         <v>54</v>
@@ -15389,7 +15575,7 @@
         <v>12</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>54</v>
@@ -15430,7 +15616,7 @@
         <v>17</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>54</v>
@@ -15471,7 +15657,7 @@
         <v>15</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>54</v>
@@ -15512,7 +15698,7 @@
         <v>17</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>54</v>
@@ -15553,7 +15739,7 @@
         <v>24</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L115" s="2" t="s">
         <v>54</v>
@@ -15594,7 +15780,7 @@
         <v>15</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>54</v>
@@ -15635,7 +15821,7 @@
         <v>18</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>54</v>
@@ -15676,7 +15862,7 @@
         <v>15</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>54</v>
@@ -15717,7 +15903,7 @@
         <v>15</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>54</v>
@@ -15758,7 +15944,7 @@
         <v>17</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>54</v>
@@ -15799,7 +15985,7 @@
         <v>15</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L121" s="2" t="s">
         <v>54</v>
@@ -15840,7 +16026,7 @@
         <v>12</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L122" s="2" t="s">
         <v>54</v>
@@ -15881,7 +16067,7 @@
         <v>12</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L123" s="2" t="s">
         <v>54</v>
@@ -15901,7 +16087,7 @@
         <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E124" s="2">
         <v>6</v>
@@ -15922,7 +16108,7 @@
         <v>18</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>54</v>
@@ -15942,7 +16128,7 @@
         <v>31</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E125" s="2">
         <v>6</v>
@@ -15963,7 +16149,7 @@
         <v>21</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L125" s="2" t="s">
         <v>54</v>
@@ -15983,7 +16169,7 @@
         <v>31</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E126" s="2">
         <v>6</v>
@@ -16004,7 +16190,7 @@
         <v>11</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L126" s="2" t="s">
         <v>54</v>
@@ -16024,7 +16210,7 @@
         <v>31</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E127" s="2">
         <v>6</v>
@@ -16045,7 +16231,7 @@
         <v>17</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>54</v>
@@ -16065,7 +16251,7 @@
         <v>31</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E128" s="2">
         <v>6</v>
@@ -16086,7 +16272,7 @@
         <v>21</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L128" s="2" t="s">
         <v>54</v>
@@ -16106,7 +16292,7 @@
         <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E129" s="2">
         <v>6</v>
@@ -16127,7 +16313,7 @@
         <v>24</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>54</v>
@@ -16147,7 +16333,7 @@
         <v>31</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E130" s="2">
         <v>6</v>
@@ -16168,7 +16354,7 @@
         <v>18</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>54</v>
@@ -16188,7 +16374,7 @@
         <v>31</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E131" s="2">
         <v>6</v>
@@ -16209,7 +16395,7 @@
         <v>24</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L131" s="2" t="s">
         <v>54</v>
@@ -16229,7 +16415,7 @@
         <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E132" s="2">
         <v>6</v>
@@ -16250,7 +16436,7 @@
         <v>9</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>54</v>
@@ -16270,7 +16456,7 @@
         <v>31</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E133" s="2">
         <v>6</v>
@@ -16291,7 +16477,7 @@
         <v>15</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L133" s="2" t="s">
         <v>54</v>
@@ -16311,7 +16497,7 @@
         <v>31</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E134" s="2">
         <v>6</v>
@@ -16332,7 +16518,7 @@
         <v>13</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>54</v>
@@ -16352,7 +16538,7 @@
         <v>31</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E135" s="2">
         <v>6</v>
@@ -16373,7 +16559,7 @@
         <v>10</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>54</v>
@@ -16393,7 +16579,7 @@
         <v>31</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E136" s="2">
         <v>6</v>
@@ -16414,7 +16600,7 @@
         <v>14</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>54</v>
@@ -16434,7 +16620,7 @@
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E137" s="2">
         <v>6</v>
@@ -16455,7 +16641,7 @@
         <v>16</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>54</v>
@@ -16475,7 +16661,7 @@
         <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E138" s="2">
         <v>6</v>
@@ -16496,7 +16682,7 @@
         <v>12</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L138" s="2" t="s">
         <v>54</v>
@@ -16516,7 +16702,7 @@
         <v>31</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E139" s="2">
         <v>6</v>
@@ -16537,7 +16723,7 @@
         <v>15</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L139" s="2" t="s">
         <v>54</v>
@@ -16557,7 +16743,7 @@
         <v>31</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E140" s="2">
         <v>6</v>
@@ -16578,7 +16764,7 @@
         <v>18</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>54</v>
@@ -16598,7 +16784,7 @@
         <v>31</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E141" s="2">
         <v>6</v>
@@ -16619,7 +16805,7 @@
         <v>10</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>54</v>
@@ -16639,7 +16825,7 @@
         <v>31</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E142" s="2">
         <v>6</v>
@@ -16660,7 +16846,7 @@
         <v>15</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L142" s="2" t="s">
         <v>54</v>
@@ -16680,7 +16866,7 @@
         <v>31</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E143" s="2">
         <v>6</v>
@@ -16701,7 +16887,7 @@
         <v>10</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L143" s="2" t="s">
         <v>54</v>
@@ -16721,7 +16907,7 @@
         <v>31</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E144" s="2">
         <v>6</v>
@@ -16742,7 +16928,7 @@
         <v>11</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L144" s="2" t="s">
         <v>54</v>
@@ -16762,7 +16948,7 @@
         <v>31</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E145" s="2">
         <v>6</v>
@@ -16783,7 +16969,7 @@
         <v>24</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L145" s="2" t="s">
         <v>54</v>
@@ -16803,7 +16989,7 @@
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E146" s="2">
         <v>6</v>
@@ -16824,7 +17010,7 @@
         <v>14</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L146" s="2" t="s">
         <v>54</v>
@@ -16844,7 +17030,7 @@
         <v>31</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E147" s="2">
         <v>6</v>
@@ -16865,7 +17051,7 @@
         <v>16</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L147" s="2" t="s">
         <v>54</v>
@@ -16885,7 +17071,7 @@
         <v>31</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E148" s="2">
         <v>6</v>
@@ -16906,7 +17092,7 @@
         <v>18</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>54</v>
@@ -16947,7 +17133,7 @@
         <v>31</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L149" s="2" t="s">
         <v>54</v>
@@ -16988,7 +17174,7 @@
         <v>31</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>54</v>
@@ -17029,7 +17215,7 @@
         <v>31</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L151" s="2" t="s">
         <v>54</v>
@@ -17070,7 +17256,7 @@
         <v>31</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L152" s="2" t="s">
         <v>54</v>
@@ -17111,7 +17297,7 @@
         <v>31</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L153" s="2" t="s">
         <v>54</v>
@@ -17152,7 +17338,7 @@
         <v>31</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L154" s="2" t="s">
         <v>54</v>
@@ -17193,7 +17379,7 @@
         <v>31</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L155" s="2" t="s">
         <v>54</v>
@@ -17234,7 +17420,7 @@
         <v>31</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>54</v>
@@ -17275,7 +17461,7 @@
         <v>31</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>54</v>
@@ -17316,7 +17502,7 @@
         <v>31</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>54</v>
@@ -17357,7 +17543,7 @@
         <v>31</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>54</v>
@@ -17398,7 +17584,7 @@
         <v>31</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>54</v>
@@ -17439,7 +17625,7 @@
         <v>31</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>54</v>
@@ -17480,7 +17666,7 @@
         <v>31</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>54</v>
@@ -17521,7 +17707,7 @@
         <v>31</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>54</v>
@@ -17562,7 +17748,7 @@
         <v>31</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>54</v>
@@ -17603,7 +17789,7 @@
         <v>31</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L165" s="2" t="s">
         <v>54</v>
@@ -17644,7 +17830,7 @@
         <v>31</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L166" s="2" t="s">
         <v>54</v>
@@ -17685,7 +17871,7 @@
         <v>31</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L167" s="2" t="s">
         <v>54</v>
@@ -17726,7 +17912,7 @@
         <v>31</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L168" s="2" t="s">
         <v>54</v>
@@ -17767,7 +17953,7 @@
         <v>31</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L169" s="2" t="s">
         <v>54</v>
@@ -17808,7 +17994,7 @@
         <v>31</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L170" s="2" t="s">
         <v>89</v>
@@ -17849,7 +18035,7 @@
         <v>31</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L171" s="2" t="s">
         <v>89</v>
@@ -17890,7 +18076,7 @@
         <v>31</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L172" s="2" t="s">
         <v>54</v>
@@ -17931,7 +18117,7 @@
         <v>31</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L173" s="2" t="s">
         <v>54</v>
@@ -17972,7 +18158,7 @@
         <v>31</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L174" s="2" t="s">
         <v>89</v>
@@ -18013,7 +18199,7 @@
         <v>31</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L175" s="2" t="s">
         <v>54</v>
@@ -18054,7 +18240,7 @@
         <v>31</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L176" s="2" t="s">
         <v>89</v>
@@ -18095,7 +18281,7 @@
         <v>31</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L177" s="2" t="s">
         <v>89</v>
@@ -18136,7 +18322,7 @@
         <v>31</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>54</v>
@@ -18177,7 +18363,7 @@
         <v>31</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>54</v>
@@ -18218,7 +18404,7 @@
         <v>31</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L180" s="2" t="s">
         <v>54</v>
@@ -18259,7 +18445,7 @@
         <v>31</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L181" s="2" t="s">
         <v>54</v>
@@ -18300,7 +18486,7 @@
         <v>31</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L182" s="2" t="s">
         <v>54</v>
@@ -18341,7 +18527,7 @@
         <v>31</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L183" s="2" t="s">
         <v>89</v>
@@ -18382,7 +18568,7 @@
         <v>31</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L184" s="2" t="s">
         <v>54</v>
@@ -18423,7 +18609,7 @@
         <v>31</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L185" s="2" t="s">
         <v>54</v>
@@ -18464,7 +18650,7 @@
         <v>31</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L186" s="2" t="s">
         <v>54</v>
@@ -18505,7 +18691,7 @@
         <v>31</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L187" s="2" t="s">
         <v>54</v>
@@ -18546,7 +18732,7 @@
         <v>31</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L188" s="2" t="s">
         <v>54</v>
@@ -18587,7 +18773,7 @@
         <v>31</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L189" s="2" t="s">
         <v>54</v>
@@ -18628,7 +18814,7 @@
         <v>31</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L190" s="2" t="s">
         <v>54</v>
@@ -18669,7 +18855,7 @@
         <v>31</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L191" s="2" t="s">
         <v>54</v>
@@ -18710,7 +18896,7 @@
         <v>31</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L192" s="2" t="s">
         <v>54</v>
@@ -18751,7 +18937,7 @@
         <v>31</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L193" s="2" t="s">
         <v>54</v>
@@ -18792,7 +18978,7 @@
         <v>31</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L194" s="2" t="s">
         <v>54</v>
@@ -18833,7 +19019,7 @@
         <v>31</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L195" s="2" t="s">
         <v>54</v>
@@ -18853,7 +19039,7 @@
         <v>31</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E196" s="2">
         <v>8</v>
@@ -18874,7 +19060,7 @@
         <v>31</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L196" s="2" t="s">
         <v>54</v>
@@ -18894,7 +19080,7 @@
         <v>31</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E197" s="2">
         <v>8</v>
@@ -18915,7 +19101,7 @@
         <v>31</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L197" s="2" t="s">
         <v>54</v>
@@ -18935,7 +19121,7 @@
         <v>31</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E198" s="2">
         <v>9</v>
@@ -18956,7 +19142,7 @@
         <v>31</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L198" s="2" t="s">
         <v>54</v>
@@ -18990,7 +19176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035903E1-F406-42E6-B89A-32C491D67CB4}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -19030,28 +19216,28 @@
         <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>610</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>266</v>
@@ -19065,7 +19251,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -19091,7 +19277,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -19120,7 +19306,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -19149,7 +19335,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -19178,7 +19364,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -19207,7 +19393,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -19236,7 +19422,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -19265,7 +19451,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -19294,7 +19480,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -19323,7 +19509,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -19352,7 +19538,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -19378,7 +19564,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -19404,7 +19590,7 @@
         <v>31</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -19430,7 +19616,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -19456,7 +19642,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -19482,7 +19668,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -19502,7 +19688,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -19528,7 +19714,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -19557,7 +19743,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -19586,7 +19772,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -19615,7 +19801,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -19641,7 +19827,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -19667,7 +19853,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -19693,7 +19879,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -19719,7 +19905,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -19745,7 +19931,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -19771,7 +19957,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -19797,7 +19983,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -19823,7 +20009,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -19852,7 +20038,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -19881,7 +20067,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -19907,7 +20093,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -19936,7 +20122,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -19965,7 +20151,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -19991,7 +20177,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -20017,7 +20203,7 @@
         <v>31</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -20043,7 +20229,7 @@
         <v>31</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
@@ -20063,7 +20249,7 @@
         <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
@@ -20089,7 +20275,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -20115,7 +20301,7 @@
         <v>31</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -20141,7 +20327,7 @@
         <v>31</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -20167,7 +20353,7 @@
         <v>31</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>
@@ -20193,7 +20379,7 @@
         <v>31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
@@ -20219,7 +20405,7 @@
         <v>31</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
@@ -20239,7 +20425,7 @@
         <v>31</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
@@ -20287,7 +20473,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>49</v>
@@ -20310,7 +20496,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E2" s="2">
         <v>8</v>
@@ -20333,7 +20519,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E3" s="2">
         <v>5</v>
@@ -20356,7 +20542,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E4" s="2">
         <v>8</v>
@@ -20379,7 +20565,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E5" s="2">
         <v>7</v>
@@ -20583,10 +20769,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E14" s="2">
         <v>3</v>
@@ -20608,7 +20794,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21725,7 +21911,7 @@
         <v>91</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -21739,7 +21925,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -21753,7 +21939,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -21767,7 +21953,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -21781,7 +21967,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -22313,7 +22499,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -22327,7 +22513,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -22341,7 +22527,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -22355,7 +22541,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -22383,7 +22569,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -22397,7 +22583,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -22411,7 +22597,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -22425,7 +22611,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -22439,7 +22625,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -22453,7 +22639,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -22467,7 +22653,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -22481,7 +22667,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -22834,7 +23020,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -22848,7 +23034,7 @@
         <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -22932,7 +23118,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -22946,7 +23132,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -22960,7 +23146,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -22974,7 +23160,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -23002,7 +23188,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23016,7 +23202,7 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -23030,7 +23216,7 @@
         <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23044,7 +23230,7 @@
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -23058,7 +23244,7 @@
         <v>31</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -23072,7 +23258,7 @@
         <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23086,7 +23272,7 @@
         <v>31</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23100,7 +23286,7 @@
         <v>31</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23114,7 +23300,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -23128,7 +23314,7 @@
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -24442,7 +24628,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C77" s="2">
         <v>20</v>
@@ -24498,7 +24684,7 @@
         <v>14</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C81" s="2">
         <v>5</v>
@@ -25212,7 +25398,7 @@
         <v>21</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C132" s="2">
         <v>6</v>
@@ -25226,7 +25412,7 @@
         <v>21</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C133" s="2">
         <v>12</v>
@@ -25268,7 +25454,7 @@
         <v>22</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C136" s="2">
         <v>6</v>
@@ -25282,7 +25468,7 @@
         <v>22</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C137" s="2">
         <v>12</v>
@@ -25366,7 +25552,7 @@
         <v>24</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C143" s="2">
         <v>1</v>
@@ -25394,7 +25580,7 @@
         <v>24</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C145" s="2">
         <v>8</v>
@@ -25408,7 +25594,7 @@
         <v>24</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C146" s="2">
         <v>14</v>
@@ -25422,7 +25608,7 @@
         <v>24</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C147" s="2">
         <v>19</v>
@@ -25436,7 +25622,7 @@
         <v>25</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C148" s="2">
         <v>1</v>
@@ -25464,7 +25650,7 @@
         <v>25</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C150" s="2">
         <v>8</v>
@@ -25478,7 +25664,7 @@
         <v>25</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C151" s="2">
         <v>14</v>
@@ -25492,7 +25678,7 @@
         <v>25</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C152" s="2">
         <v>19</v>
@@ -25506,7 +25692,7 @@
         <v>26</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C153" s="2">
         <v>1</v>
@@ -25520,7 +25706,7 @@
         <v>26</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C154" s="2">
         <v>6</v>
@@ -25534,7 +25720,7 @@
         <v>26</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C155" s="2">
         <v>11</v>
@@ -25548,7 +25734,7 @@
         <v>26</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C156" s="2">
         <v>16</v>
@@ -25576,7 +25762,7 @@
         <v>27</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C158" s="2">
         <v>1</v>
@@ -25590,7 +25776,7 @@
         <v>27</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C159" s="2">
         <v>6</v>
@@ -25604,7 +25790,7 @@
         <v>27</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C160" s="2">
         <v>11</v>
@@ -25618,7 +25804,7 @@
         <v>27</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C161" s="2">
         <v>16</v>
@@ -25646,7 +25832,7 @@
         <v>28</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C163" s="2">
         <v>1</v>
@@ -25660,7 +25846,7 @@
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C164" s="2">
         <v>6</v>
@@ -25674,7 +25860,7 @@
         <v>28</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C165" s="2">
         <v>11</v>
@@ -25688,7 +25874,7 @@
         <v>28</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C166" s="2">
         <v>16</v>
@@ -25716,7 +25902,7 @@
         <v>29</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C168" s="2">
         <v>1</v>
@@ -25730,7 +25916,7 @@
         <v>29</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C169" s="2">
         <v>6</v>
@@ -25744,7 +25930,7 @@
         <v>29</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C170" s="2">
         <v>11</v>
@@ -25758,7 +25944,7 @@
         <v>29</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C171" s="2">
         <v>16</v>
@@ -26340,7 +26526,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -26354,7 +26540,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C28" s="2">
         <v>9</v>
@@ -26970,7 +27156,7 @@
         <v>13</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C72" s="2">
         <v>3</v>
@@ -26984,7 +27170,7 @@
         <v>13</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" s="2">
         <v>5</v>
@@ -27040,7 +27226,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C77" s="2">
         <v>18</v>
@@ -27082,7 +27268,7 @@
         <v>14</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C80" s="2">
         <v>2</v>
@@ -27096,7 +27282,7 @@
         <v>14</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C81" s="2">
         <v>4</v>
@@ -27110,7 +27296,7 @@
         <v>14</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C82" s="2">
         <v>8</v>
@@ -27124,7 +27310,7 @@
         <v>14</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C83" s="2">
         <v>12</v>
@@ -27166,7 +27352,7 @@
         <v>14</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C86" s="2">
         <v>20</v>
@@ -27726,7 +27912,7 @@
         <v>21</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C126" s="2">
         <v>1</v>
@@ -27782,7 +27968,7 @@
         <v>22</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C130" s="2">
         <v>1</v>
@@ -27908,7 +28094,7 @@
         <v>24</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C139" s="2">
         <v>2</v>
@@ -27922,7 +28108,7 @@
         <v>24</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C140" s="2">
         <v>6</v>
@@ -27936,7 +28122,7 @@
         <v>24</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C141" s="2">
         <v>12</v>
@@ -27950,7 +28136,7 @@
         <v>24</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C142" s="2">
         <v>18</v>
@@ -27964,7 +28150,7 @@
         <v>24</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C143" s="2">
         <v>20</v>
@@ -27992,7 +28178,7 @@
         <v>25</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C145" s="2">
         <v>2</v>
@@ -28006,7 +28192,7 @@
         <v>25</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C146" s="2">
         <v>6</v>
@@ -28020,7 +28206,7 @@
         <v>25</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C147" s="2">
         <v>12</v>
@@ -28034,7 +28220,7 @@
         <v>25</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C148" s="2">
         <v>18</v>
@@ -28048,7 +28234,7 @@
         <v>25</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C149" s="2">
         <v>20</v>
@@ -28062,7 +28248,7 @@
         <v>26</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C150" s="2">
         <v>1</v>
@@ -28076,7 +28262,7 @@
         <v>26</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C151" s="2">
         <v>3</v>
@@ -28090,7 +28276,7 @@
         <v>26</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C152" s="2">
         <v>5</v>
@@ -28104,7 +28290,7 @@
         <v>26</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C153" s="2">
         <v>10</v>
@@ -28118,7 +28304,7 @@
         <v>26</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C154" s="2">
         <v>15</v>
@@ -28146,7 +28332,7 @@
         <v>26</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C156" s="2">
         <v>20</v>
@@ -28160,7 +28346,7 @@
         <v>27</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C157" s="2">
         <v>1</v>
@@ -28174,7 +28360,7 @@
         <v>27</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C158" s="2">
         <v>3</v>
@@ -28188,7 +28374,7 @@
         <v>27</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C159" s="2">
         <v>5</v>
@@ -28202,7 +28388,7 @@
         <v>27</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C160" s="2">
         <v>10</v>
@@ -28216,7 +28402,7 @@
         <v>27</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C161" s="2">
         <v>15</v>
@@ -28244,7 +28430,7 @@
         <v>27</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C163" s="2">
         <v>20</v>
@@ -28258,7 +28444,7 @@
         <v>28</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C164" s="2">
         <v>1</v>
@@ -28272,7 +28458,7 @@
         <v>28</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C165" s="2">
         <v>3</v>
@@ -28286,7 +28472,7 @@
         <v>28</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
@@ -28300,7 +28486,7 @@
         <v>28</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C167" s="2">
         <v>10</v>
@@ -28314,7 +28500,7 @@
         <v>28</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C168" s="2">
         <v>15</v>
@@ -28342,7 +28528,7 @@
         <v>28</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C170" s="2">
         <v>20</v>
@@ -28356,7 +28542,7 @@
         <v>29</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C171" s="2">
         <v>1</v>
@@ -28370,7 +28556,7 @@
         <v>29</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C172" s="2">
         <v>3</v>
@@ -28384,7 +28570,7 @@
         <v>29</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C173" s="2">
         <v>5</v>
@@ -28398,7 +28584,7 @@
         <v>29</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C174" s="2">
         <v>10</v>
@@ -28412,7 +28598,7 @@
         <v>29</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C175" s="2">
         <v>15</v>
@@ -28440,7 +28626,7 @@
         <v>29</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C177" s="2">
         <v>20</v>
